--- a/Usability-review-Carlota-Braun.xlsx
+++ b/Usability-review-Carlota-Braun.xlsx
@@ -431,14 +431,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhSwMaqm4KrVwszMO/9RyqWBa5zxw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjXdw4DYSVcmj7Y2hSvq/Qn4qvn5A=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
   <si>
     <t>Usability review</t>
   </si>
@@ -709,7 +709,13 @@
     <t>Terms, language and tone used are consitent (e.g. the same term is used throughout).</t>
   </si>
   <si>
+    <t>No queda claro el uso del nombre Carlota Braun y Carlota's Hostel</t>
+  </si>
+  <si>
     <t>Text and content is legible and scanable, with good typography and visual contrast.</t>
+  </si>
+  <si>
+    <t>Algunos tipo de letras son comprensibles sin ningñun tipo de problema. Otros en cambio, no son tan legibles.</t>
   </si>
   <si>
     <t>Help</t>
@@ -718,7 +724,13 @@
     <t>Online help is provided and is suitable for the user base (e.g. is written in easy to understand langugage and only uses recognised terms). Where appropriate contextual help is provided.</t>
   </si>
   <si>
+    <t>No existe una ayuda específica, online y de usuario como tal. La única ayuda que existe es la de contacto vía whatsapp o teléfono.</t>
+  </si>
+  <si>
     <t>Online help is concise, easy to read and written in easy to understand language.</t>
+  </si>
+  <si>
+    <t>No existe ayuda online escrita.</t>
   </si>
   <si>
     <t>Accessing online help does not impede users (i.e. they can can resume work where they left off after accessing help).</t>
@@ -727,16 +739,28 @@
     <t>Users can easily get further help (e.g. telephone or email address).</t>
   </si>
   <si>
+    <t>Opciones como contacto telefónico o vía whatsapp son bastante visibles y fácil de acceder. Otros, en cambio, como el contacto vía email no son tan fáciles de encontrar en la página.</t>
+  </si>
+  <si>
     <t>Performance</t>
   </si>
   <si>
     <t>Site or application performance doesn't inhibit the user experience (e.g. slow page downloads, long delays).</t>
   </si>
   <si>
+    <t>Ciertas páginas tardan un tiempo sustancial al que el usuario medio no está acostumbrado, por lo que se puede estresar.</t>
+  </si>
+  <si>
     <t>Errors and reliabilty issues don't inhibit the user experience.</t>
   </si>
   <si>
+    <t>Algunas aplicaciones sobre los mapas de las páginas, no redirigen a sitios correctos.</t>
+  </si>
+  <si>
     <t>Possible user configurations (e.g. browsers, resolutions, computer specs) are supported.</t>
+  </si>
+  <si>
+    <t>Se ve perfectamente en distintos dispositivos.</t>
   </si>
   <si>
     <t>Overall usability score (out of 100) *</t>
@@ -1743,8 +1767,7 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="18.0"/>
@@ -1840,12 +1863,6 @@
       <name val="Bliss 2 medium"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Bliss 2 medium"/>
-    </font>
-    <font>
       <i/>
       <sz val="10.0"/>
       <color rgb="FFC0C0C0"/>
@@ -1886,9 +1903,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Bliss 2 medium"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2059,7 +2081,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2224,9 +2246,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -2239,49 +2258,49 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="22" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="2" fontId="21" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2289,13 +2308,13 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2307,7 +2326,7 @@
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2588,21 +2607,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.29"/>
-    <col customWidth="1" min="2" max="2" width="68.86"/>
-    <col customWidth="1" min="3" max="3" width="5.29"/>
-    <col customWidth="1" min="4" max="4" width="15.86"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="7.71"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="5.0"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="58.57"/>
-    <col customWidth="1" min="10" max="10" width="2.43"/>
-    <col customWidth="1" min="11" max="12" width="13.86"/>
-    <col customWidth="1" min="13" max="13" width="10.43"/>
-    <col customWidth="1" min="14" max="26" width="9.14"/>
+    <col customWidth="1" min="1" max="1" width="4.63"/>
+    <col customWidth="1" min="2" max="2" width="60.25"/>
+    <col customWidth="1" min="3" max="3" width="4.63"/>
+    <col customWidth="1" min="4" max="4" width="13.88"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="6.75"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="4.38"/>
+    <col customWidth="1" min="8" max="8" width="4.13"/>
+    <col customWidth="1" min="9" max="9" width="51.25"/>
+    <col customWidth="1" min="10" max="10" width="2.13"/>
+    <col customWidth="1" min="11" max="12" width="12.13"/>
+    <col customWidth="1" min="13" max="13" width="9.13"/>
+    <col customWidth="1" min="14" max="26" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
@@ -5399,7 +5418,9 @@
         <v>#REF!</v>
       </c>
       <c r="H95" s="4"/>
-      <c r="I95" s="39"/>
+      <c r="I95" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="J95" s="4"/>
       <c r="K95" s="40">
         <v>3.0</v>
@@ -5444,11 +5465,11 @@
         <v>38</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="56" t="s">
-        <v>1</v>
+      <c r="D97" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="str">
@@ -5460,7 +5481,9 @@
         <v>#REF!</v>
       </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="39"/>
+      <c r="I97" s="46" t="s">
+        <v>91</v>
+      </c>
       <c r="J97" s="4"/>
       <c r="K97" s="40">
         <v>3.0</v>
@@ -5471,15 +5494,15 @@
       </c>
       <c r="M97" s="42">
         <f>VLOOKUP(D97,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N97" s="42">
         <f>M97*L97</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O97" s="42">
         <f>IF(M97=0,0,L97*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" ht="12.0" customHeight="1">
@@ -5500,7 +5523,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C99" s="34"/>
       <c r="D99" s="53"/>
@@ -5538,11 +5561,11 @@
         <v>39</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="56" t="s">
-        <v>1</v>
+      <c r="D101" s="38" t="s">
+        <v>2</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="str">
@@ -5554,7 +5577,9 @@
         <v>#REF!</v>
       </c>
       <c r="H101" s="4"/>
-      <c r="I101" s="39"/>
+      <c r="I101" s="46" t="s">
+        <v>94</v>
+      </c>
       <c r="J101" s="4"/>
       <c r="K101" s="40">
         <v>4.0</v>
@@ -5565,15 +5590,15 @@
       </c>
       <c r="M101" s="42">
         <f>VLOOKUP(D101,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" s="42">
         <f>M101*L101</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O101" s="42">
         <f>IF(M101=0,0,L101*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="12.0" customHeight="1">
@@ -5599,11 +5624,11 @@
         <v>40</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="56" t="s">
-        <v>1</v>
+      <c r="D103" s="38" t="s">
+        <v>2</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="str">
@@ -5615,7 +5640,9 @@
         <v>#REF!</v>
       </c>
       <c r="H103" s="4"/>
-      <c r="I103" s="39"/>
+      <c r="I103" s="46" t="s">
+        <v>96</v>
+      </c>
       <c r="J103" s="4"/>
       <c r="K103" s="40">
         <v>3.0</v>
@@ -5626,15 +5653,15 @@
       </c>
       <c r="M103" s="42">
         <f>VLOOKUP(D103,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" s="42">
         <f>M103*L103</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O103" s="42">
         <f>IF(M103=0,0,L103*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
@@ -5660,11 +5687,11 @@
         <v>41</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="56" t="s">
-        <v>1</v>
+      <c r="D105" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="str">
@@ -5676,7 +5703,7 @@
         <v>#REF!</v>
       </c>
       <c r="H105" s="4"/>
-      <c r="I105" s="39"/>
+      <c r="I105" s="46"/>
       <c r="J105" s="4"/>
       <c r="K105" s="40">
         <v>3.0</v>
@@ -5721,11 +5748,11 @@
         <v>42</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="56" t="s">
-        <v>1</v>
+      <c r="D107" s="38" t="s">
+        <v>11</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="str">
@@ -5737,7 +5764,9 @@
         <v>#REF!</v>
       </c>
       <c r="H107" s="4"/>
-      <c r="I107" s="39"/>
+      <c r="I107" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="J107" s="4"/>
       <c r="K107" s="40">
         <v>2.0</v>
@@ -5748,15 +5777,15 @@
       </c>
       <c r="M107" s="42">
         <f>VLOOKUP(D107,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N107" s="42">
         <f>M107*L107</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O107" s="42">
         <f>IF(M107=0,0,L107*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
@@ -5777,7 +5806,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="53"/>
@@ -5815,11 +5844,11 @@
         <v>43</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C111" s="20"/>
-      <c r="D111" s="56" t="s">
-        <v>1</v>
+      <c r="D111" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20" t="str">
@@ -5831,26 +5860,28 @@
         <v>#REF!</v>
       </c>
       <c r="H111" s="20"/>
-      <c r="I111" s="39"/>
+      <c r="I111" s="46" t="s">
+        <v>102</v>
+      </c>
       <c r="J111" s="20"/>
       <c r="K111" s="29">
         <v>4.0</v>
       </c>
-      <c r="L111" s="57">
+      <c r="L111" s="56">
         <f>K111/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M111" s="58">
+      <c r="M111" s="57">
         <f>VLOOKUP(D111,Q1:R9,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N111" s="58">
+        <v>3</v>
+      </c>
+      <c r="N111" s="57">
         <f>M111*L111</f>
-        <v>0</v>
-      </c>
-      <c r="O111" s="58">
+        <v>2.4</v>
+      </c>
+      <c r="O111" s="57">
         <f>IF(M111=0,0,L111*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P111" s="20"/>
       <c r="Q111" s="20"/>
@@ -5868,7 +5899,7 @@
       <c r="A112" s="36"/>
       <c r="B112" s="37"/>
       <c r="C112" s="20"/>
-      <c r="D112" s="59"/>
+      <c r="D112" s="58"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
@@ -5876,10 +5907,10 @@
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
       <c r="K112" s="29"/>
-      <c r="L112" s="57"/>
-      <c r="M112" s="58"/>
-      <c r="N112" s="58"/>
-      <c r="O112" s="58"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="57"/>
+      <c r="N112" s="57"/>
+      <c r="O112" s="57"/>
       <c r="P112" s="20"/>
       <c r="Q112" s="20"/>
       <c r="R112" s="20"/>
@@ -5898,11 +5929,11 @@
         <v>44</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C113" s="20"/>
-      <c r="D113" s="56" t="s">
-        <v>1</v>
+      <c r="D113" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20" t="str">
@@ -5914,26 +5945,28 @@
         <v>#REF!</v>
       </c>
       <c r="H113" s="20"/>
-      <c r="I113" s="39"/>
+      <c r="I113" s="46" t="s">
+        <v>104</v>
+      </c>
       <c r="J113" s="20"/>
       <c r="K113" s="29">
         <v>4.0</v>
       </c>
-      <c r="L113" s="57">
+      <c r="L113" s="56">
         <f>K113/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M113" s="58">
+      <c r="M113" s="57">
         <f>VLOOKUP(D113,Q1:R9,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N113" s="58">
+        <v>3</v>
+      </c>
+      <c r="N113" s="57">
         <f>M113*L113</f>
-        <v>0</v>
-      </c>
-      <c r="O113" s="58">
+        <v>2.4</v>
+      </c>
+      <c r="O113" s="57">
         <f>IF(M113=0,0,L113*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P113" s="20"/>
       <c r="Q113" s="20"/>
@@ -5951,7 +5984,7 @@
       <c r="A114" s="36"/>
       <c r="B114" s="37"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="59"/>
+      <c r="D114" s="58"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
@@ -5959,10 +5992,10 @@
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
       <c r="K114" s="29"/>
-      <c r="L114" s="57"/>
-      <c r="M114" s="58"/>
-      <c r="N114" s="58"/>
-      <c r="O114" s="58"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="57"/>
+      <c r="N114" s="57"/>
+      <c r="O114" s="57"/>
       <c r="P114" s="20"/>
       <c r="Q114" s="20"/>
       <c r="R114" s="20"/>
@@ -5981,11 +6014,11 @@
         <v>45</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C115" s="20"/>
-      <c r="D115" s="56" t="s">
-        <v>1</v>
+      <c r="D115" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20" t="str">
@@ -5997,26 +6030,28 @@
         <v>#REF!</v>
       </c>
       <c r="H115" s="20"/>
-      <c r="I115" s="39"/>
+      <c r="I115" s="46" t="s">
+        <v>106</v>
+      </c>
       <c r="J115" s="20"/>
       <c r="K115" s="29">
         <v>3.0</v>
       </c>
-      <c r="L115" s="57">
+      <c r="L115" s="56">
         <f>K115/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M115" s="58">
+      <c r="M115" s="57">
         <f>VLOOKUP(D115,Q1:R9,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N115" s="58">
+        <v>5</v>
+      </c>
+      <c r="N115" s="57">
         <f>M115*L115</f>
-        <v>0</v>
-      </c>
-      <c r="O115" s="58">
+        <v>3</v>
+      </c>
+      <c r="O115" s="57">
         <f>IF(M115=0,0,L115*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115" s="20"/>
       <c r="Q115" s="20"/>
@@ -6031,7 +6066,7 @@
       <c r="Z115" s="20"/>
     </row>
     <row r="116" ht="12.0" customHeight="1">
-      <c r="B116" s="60"/>
+      <c r="B116" s="59"/>
       <c r="C116" s="4"/>
       <c r="D116" s="43"/>
       <c r="E116" s="4"/>
@@ -6040,50 +6075,50 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="61"/>
-      <c r="L116" s="61"/>
-      <c r="M116" s="61"/>
-      <c r="N116" s="62"/>
-      <c r="O116" s="62"/>
+      <c r="K116" s="60"/>
+      <c r="L116" s="60"/>
+      <c r="M116" s="60"/>
+      <c r="N116" s="61"/>
+      <c r="O116" s="61"/>
     </row>
     <row r="117" ht="24.0" customHeight="1">
-      <c r="A117" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="64"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="66">
+      <c r="A117" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="63"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="65">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>72.4137931</v>
-      </c>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="68" t="str">
+        <v>69.49640288</v>
+      </c>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="67" t="str">
         <f>IF(D117="","","-")</f>
         <v>-</v>
       </c>
-      <c r="I117" s="69" t="str">
+      <c r="I117" s="68" t="str">
         <f>VLOOKUP(J117,'Rating ranges'!A2:B7,2,TRUE)</f>
         <v>Good</v>
       </c>
-      <c r="J117" s="70">
+      <c r="J117" s="69">
         <f>IF(D117="",0,D117)</f>
-        <v>72.4137931</v>
-      </c>
-      <c r="K117" s="61">
+        <v>69.49640288</v>
+      </c>
+      <c r="K117" s="60">
         <f>MAX(K9:K115)</f>
         <v>5</v>
       </c>
-      <c r="L117" s="61"/>
-      <c r="M117" s="61"/>
-      <c r="N117" s="62">
+      <c r="L117" s="60"/>
+      <c r="M117" s="60"/>
+      <c r="N117" s="61">
         <f t="shared" ref="N117:O117" si="1">SUM(N9:N115)</f>
-        <v>84</v>
-      </c>
-      <c r="O117" s="62">
+        <v>96.6</v>
+      </c>
+      <c r="O117" s="61">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -6099,69 +6134,69 @@
       <c r="M118" s="4"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="71" t="str">
+      <c r="A119" s="70" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="72"/>
-      <c r="C119" s="72"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="73"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="72"/>
       <c r="J119" s="4"/>
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
       <c r="M119" s="4"/>
     </row>
     <row r="120" ht="15.0" customHeight="1">
-      <c r="A120" s="74" t="str">
+      <c r="A120" s="73" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="I120" s="75"/>
+      <c r="I120" s="74"/>
       <c r="J120" s="4"/>
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
       <c r="M120" s="4"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="76" t="str">
+      <c r="A121" s="75" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="I121" s="75"/>
+      <c r="I121" s="74"/>
       <c r="J121" s="4"/>
       <c r="K121" s="13"/>
       <c r="L121" s="13"/>
       <c r="M121" s="4"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="74" t="str">
+      <c r="A122" s="73" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="I122" s="75"/>
+      <c r="I122" s="74"/>
       <c r="J122" s="4"/>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="4"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="77" t="str">
+      <c r="A123" s="76" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="78"/>
-      <c r="I123" s="79"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="78"/>
       <c r="J123" s="4"/>
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
@@ -6180,7 +6215,7 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="D125" s="80"/>
+      <c r="D125" s="79"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -6193,15 +6228,15 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="82"/>
-      <c r="H126" s="82"/>
-      <c r="I126" s="82"/>
-      <c r="J126" s="83"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="81"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="81"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="82"/>
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
       <c r="M126" s="4"/>
@@ -16741,29 +16776,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.71"/>
-    <col customWidth="1" min="2" max="2" width="118.43"/>
-    <col customWidth="1" min="3" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="26" width="9.14"/>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="2" max="2" width="103.63"/>
+    <col customWidth="1" min="3" max="3" width="13.63"/>
+    <col customWidth="1" min="4" max="26" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="60"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="32" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="24.75" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="20"/>
@@ -16793,62 +16828,62 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" ht="51.0" customHeight="1">
-      <c r="A4" s="85">
+      <c r="A4" s="84">
         <v>1.0</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>103</v>
+      <c r="B4" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="85">
+      <c r="A5" s="84">
         <f t="shared" ref="A5:A8" si="1">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>103</v>
+      <c r="B5" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="38.25" customHeight="1">
-      <c r="A6" s="85">
+      <c r="A6" s="84">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>106</v>
+      <c r="B6" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="38.25" customHeight="1">
-      <c r="A7" s="85">
+      <c r="A7" s="84">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>108</v>
+      <c r="B7" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="38.25" customHeight="1">
-      <c r="A8" s="85">
+      <c r="A8" s="84">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>108</v>
+      <c r="B8" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -16856,7 +16891,7 @@
       <c r="C9" s="20"/>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="83" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="20"/>
@@ -16886,39 +16921,39 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" ht="38.25" customHeight="1">
-      <c r="A11" s="85">
+      <c r="A11" s="84">
         <f>A8+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>108</v>
+      <c r="B11" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" ht="51.0" customHeight="1">
-      <c r="A12" s="85">
+      <c r="A12" s="84">
         <f t="shared" ref="A12:A13" si="2">A11+1</f>
         <v>7</v>
       </c>
-      <c r="B12" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>106</v>
+      <c r="B12" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="38.25" customHeight="1">
-      <c r="A13" s="85">
+      <c r="A13" s="84">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B13" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>108</v>
+      <c r="B13" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -16926,7 +16961,7 @@
       <c r="C14" s="20"/>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="83" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="20"/>
@@ -16956,111 +16991,111 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" ht="38.25" customHeight="1">
-      <c r="A16" s="85">
+      <c r="A16" s="84">
         <f>A13+1</f>
         <v>9</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>114</v>
+      <c r="B16" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17" ht="51.0" customHeight="1">
-      <c r="A17" s="85">
+      <c r="A17" s="84">
         <f t="shared" ref="A17:A24" si="3">A16+1</f>
         <v>10</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>106</v>
+      <c r="B17" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="38.25" customHeight="1">
-      <c r="A18" s="85">
+      <c r="A18" s="84">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="87" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="19" ht="51.0" customHeight="1">
-      <c r="A19" s="85">
+      <c r="A19" s="84">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>103</v>
+      <c r="B19" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" ht="51.0" customHeight="1">
-      <c r="A20" s="85">
+      <c r="A20" s="84">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>108</v>
+      <c r="B20" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" ht="38.25" customHeight="1">
-      <c r="A21" s="85">
+      <c r="A21" s="84">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B21" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>106</v>
+      <c r="B21" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="85">
+      <c r="A22" s="84">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>114</v>
+      <c r="B22" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" s="85">
+      <c r="A23" s="84">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B23" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>114</v>
+      <c r="B23" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="85">
+      <c r="A24" s="84">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>123</v>
+      <c r="B24" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -17068,7 +17103,7 @@
       <c r="C25" s="20"/>
     </row>
     <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="83" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="20"/>
@@ -17098,51 +17133,51 @@
       <c r="Z26" s="20"/>
     </row>
     <row r="27" ht="38.25" customHeight="1">
-      <c r="A27" s="85">
+      <c r="A27" s="84">
         <f>A24+1</f>
         <v>18</v>
       </c>
-      <c r="B27" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>106</v>
+      <c r="B27" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" ht="38.25" customHeight="1">
-      <c r="A28" s="85">
+      <c r="A28" s="84">
         <f t="shared" ref="A28:A30" si="4">A27+1</f>
         <v>19</v>
       </c>
-      <c r="B28" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>106</v>
+      <c r="B28" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" ht="51.0" customHeight="1">
-      <c r="A29" s="85">
+      <c r="A29" s="84">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B29" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="87" t="s">
-        <v>114</v>
+      <c r="B29" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" ht="38.25" customHeight="1">
-      <c r="A30" s="85">
+      <c r="A30" s="84">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B30" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>106</v>
+      <c r="B30" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -17150,7 +17185,7 @@
       <c r="C31" s="20"/>
     </row>
     <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="83" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="20"/>
@@ -17180,39 +17215,39 @@
       <c r="Z32" s="20"/>
     </row>
     <row r="33" ht="38.25" customHeight="1">
-      <c r="A33" s="85">
+      <c r="A33" s="84">
         <f>A30+1</f>
         <v>22</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="87" t="s">
-        <v>106</v>
+      <c r="B33" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" ht="51.0" customHeight="1">
-      <c r="A34" s="85">
+      <c r="A34" s="84">
         <f t="shared" ref="A34:A35" si="5">A33+1</f>
         <v>23</v>
       </c>
-      <c r="B34" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>108</v>
+      <c r="B34" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="38.25" customHeight="1">
-      <c r="A35" s="85">
+      <c r="A35" s="84">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>123</v>
+      <c r="B35" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -17220,7 +17255,7 @@
       <c r="C36" s="20"/>
     </row>
     <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="83" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="20"/>
@@ -17250,63 +17285,63 @@
       <c r="Z37" s="20"/>
     </row>
     <row r="38" ht="38.25" customHeight="1">
-      <c r="A38" s="85">
+      <c r="A38" s="84">
         <f>A35+1</f>
         <v>25</v>
       </c>
-      <c r="B38" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>108</v>
+      <c r="B38" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="63.75" customHeight="1">
-      <c r="A39" s="85">
+      <c r="A39" s="84">
         <f t="shared" ref="A39:A42" si="6">A38+1</f>
         <v>26</v>
       </c>
-      <c r="B39" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>114</v>
+      <c r="B39" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="38.25" customHeight="1">
-      <c r="A40" s="85">
+      <c r="A40" s="84">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="B40" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>114</v>
+      <c r="B40" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="63.75" customHeight="1">
-      <c r="A41" s="85">
+      <c r="A41" s="84">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="B41" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>108</v>
+      <c r="B41" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" ht="38.25" customHeight="1">
-      <c r="A42" s="85">
+      <c r="A42" s="84">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="B42" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="87" t="s">
-        <v>108</v>
+      <c r="B42" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -17314,7 +17349,7 @@
       <c r="C43" s="20"/>
     </row>
     <row r="44" ht="24.75" customHeight="1">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="83" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="20"/>
@@ -17344,51 +17379,51 @@
       <c r="Z44" s="20"/>
     </row>
     <row r="45" ht="38.25" customHeight="1">
-      <c r="A45" s="85">
+      <c r="A45" s="84">
         <f>A42+1</f>
         <v>30</v>
       </c>
-      <c r="B45" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="87" t="s">
-        <v>106</v>
+      <c r="B45" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" ht="38.25" customHeight="1">
-      <c r="A46" s="85">
+      <c r="A46" s="84">
         <f t="shared" ref="A46:A48" si="7">A45+1</f>
         <v>31</v>
       </c>
-      <c r="B46" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="87" t="s">
-        <v>108</v>
+      <c r="B46" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" ht="51.0" customHeight="1">
-      <c r="A47" s="85">
+      <c r="A47" s="84">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="B47" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>108</v>
+      <c r="B47" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="A48" s="85">
+      <c r="A48" s="84">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="B48" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>108</v>
+      <c r="B48" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -17396,7 +17431,7 @@
       <c r="C49" s="20"/>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="83" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="20"/>
@@ -17426,63 +17461,63 @@
       <c r="Z50" s="20"/>
     </row>
     <row r="51" ht="51.0" customHeight="1">
-      <c r="A51" s="85">
+      <c r="A51" s="84">
         <f>A48+1</f>
         <v>34</v>
       </c>
-      <c r="B51" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="87" t="s">
-        <v>103</v>
+      <c r="B51" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52" ht="38.25" customHeight="1">
-      <c r="A52" s="85">
+      <c r="A52" s="84">
         <f t="shared" ref="A52:A55" si="8">A51+1</f>
         <v>35</v>
       </c>
-      <c r="B52" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>114</v>
+      <c r="B52" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
-      <c r="A53" s="85">
+      <c r="A53" s="84">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="B53" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="87" t="s">
-        <v>106</v>
+      <c r="B53" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="54" ht="38.25" customHeight="1">
-      <c r="A54" s="85">
+      <c r="A54" s="84">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="B54" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="87" t="s">
-        <v>108</v>
+      <c r="B54" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
-      <c r="A55" s="85">
+      <c r="A55" s="84">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="B55" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="87" t="s">
-        <v>108</v>
+      <c r="B55" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -17490,8 +17525,8 @@
       <c r="C56" s="20"/>
     </row>
     <row r="57" ht="24.75" customHeight="1">
-      <c r="A57" s="84" t="s">
-        <v>90</v>
+      <c r="A57" s="83" t="s">
+        <v>92</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -17520,51 +17555,51 @@
       <c r="Z57" s="20"/>
     </row>
     <row r="58" ht="51.0" customHeight="1">
-      <c r="A58" s="85">
+      <c r="A58" s="84">
         <f>A55+1</f>
         <v>39</v>
       </c>
-      <c r="B58" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="87" t="s">
-        <v>106</v>
+      <c r="B58" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="38.25" customHeight="1">
-      <c r="A59" s="85">
+      <c r="A59" s="84">
         <f t="shared" ref="A59:A61" si="9">A58+1</f>
         <v>40</v>
       </c>
-      <c r="B59" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="87" t="s">
-        <v>108</v>
+      <c r="B59" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" ht="51.0" customHeight="1">
-      <c r="A60" s="85">
+      <c r="A60" s="84">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="B60" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="87" t="s">
-        <v>108</v>
+      <c r="B60" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="61" ht="38.25" customHeight="1">
-      <c r="A61" s="85">
+      <c r="A61" s="84">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="B61" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="87" t="s">
-        <v>114</v>
+      <c r="B61" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -17572,8 +17607,8 @@
       <c r="C62" s="20"/>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="A63" s="84" t="s">
-        <v>95</v>
+      <c r="A63" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -17602,3776 +17637,3776 @@
       <c r="Z63" s="20"/>
     </row>
     <row r="64" ht="51.0" customHeight="1">
-      <c r="A64" s="85">
+      <c r="A64" s="84">
         <f>A61+1</f>
         <v>43</v>
       </c>
-      <c r="B64" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="87" t="s">
-        <v>106</v>
+      <c r="B64" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
-      <c r="A65" s="85">
+      <c r="A65" s="84">
         <f t="shared" ref="A65:A66" si="10">A64+1</f>
         <v>44</v>
       </c>
-      <c r="B65" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>108</v>
+      <c r="B65" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="66" ht="51.0" customHeight="1">
-      <c r="A66" s="85">
+      <c r="A66" s="84">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="B66" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="87" t="s">
-        <v>108</v>
+      <c r="B66" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="86" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="4"/>
-      <c r="B67" s="60"/>
+      <c r="B67" s="59"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="60"/>
+      <c r="B68" s="59"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="4"/>
-      <c r="B69" s="60"/>
+      <c r="B69" s="59"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="4"/>
-      <c r="B70" s="60"/>
+      <c r="B70" s="59"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="4"/>
-      <c r="B71" s="60"/>
+      <c r="B71" s="59"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="4"/>
-      <c r="B72" s="60"/>
+      <c r="B72" s="59"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="4"/>
-      <c r="B73" s="60"/>
+      <c r="B73" s="59"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="4"/>
-      <c r="B74" s="60"/>
+      <c r="B74" s="59"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="4"/>
-      <c r="B75" s="60"/>
+      <c r="B75" s="59"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="4"/>
-      <c r="B76" s="60"/>
+      <c r="B76" s="59"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="4"/>
-      <c r="B77" s="60"/>
+      <c r="B77" s="59"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="4"/>
-      <c r="B78" s="60"/>
+      <c r="B78" s="59"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="4"/>
-      <c r="B79" s="60"/>
+      <c r="B79" s="59"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="4"/>
-      <c r="B80" s="60"/>
+      <c r="B80" s="59"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="4"/>
-      <c r="B81" s="60"/>
+      <c r="B81" s="59"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="4"/>
-      <c r="B82" s="60"/>
+      <c r="B82" s="59"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="4"/>
-      <c r="B83" s="60"/>
+      <c r="B83" s="59"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="4"/>
-      <c r="B84" s="60"/>
+      <c r="B84" s="59"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="4"/>
-      <c r="B85" s="60"/>
+      <c r="B85" s="59"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="4"/>
-      <c r="B86" s="60"/>
+      <c r="B86" s="59"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="4"/>
-      <c r="B87" s="60"/>
+      <c r="B87" s="59"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="4"/>
-      <c r="B88" s="60"/>
+      <c r="B88" s="59"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="4"/>
-      <c r="B89" s="60"/>
+      <c r="B89" s="59"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="4"/>
-      <c r="B90" s="60"/>
+      <c r="B90" s="59"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="4"/>
-      <c r="B91" s="60"/>
+      <c r="B91" s="59"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="4"/>
-      <c r="B92" s="60"/>
+      <c r="B92" s="59"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="4"/>
-      <c r="B93" s="60"/>
+      <c r="B93" s="59"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="4"/>
-      <c r="B94" s="60"/>
+      <c r="B94" s="59"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="4"/>
-      <c r="B95" s="60"/>
+      <c r="B95" s="59"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="4"/>
-      <c r="B96" s="60"/>
+      <c r="B96" s="59"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="4"/>
-      <c r="B97" s="60"/>
+      <c r="B97" s="59"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="4"/>
-      <c r="B98" s="60"/>
+      <c r="B98" s="59"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="60"/>
+      <c r="B99" s="59"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="60"/>
+      <c r="B100" s="59"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="60"/>
+      <c r="B101" s="59"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="60"/>
+      <c r="B102" s="59"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="60"/>
+      <c r="B103" s="59"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="60"/>
+      <c r="B104" s="59"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="60"/>
+      <c r="B105" s="59"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="60"/>
+      <c r="B106" s="59"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="60"/>
+      <c r="B107" s="59"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="60"/>
+      <c r="B108" s="59"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="60"/>
+      <c r="B109" s="59"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="60"/>
+      <c r="B110" s="59"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="60"/>
+      <c r="B111" s="59"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="60"/>
+      <c r="B112" s="59"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="60"/>
+      <c r="B113" s="59"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="60"/>
+      <c r="B114" s="59"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="60"/>
+      <c r="B115" s="59"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="60"/>
+      <c r="B116" s="59"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="60"/>
+      <c r="B117" s="59"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="60"/>
+      <c r="B118" s="59"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="60"/>
+      <c r="B119" s="59"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="60"/>
+      <c r="B120" s="59"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="60"/>
+      <c r="B121" s="59"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="60"/>
+      <c r="B122" s="59"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="60"/>
+      <c r="B123" s="59"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="60"/>
+      <c r="B124" s="59"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="60"/>
+      <c r="B125" s="59"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="60"/>
+      <c r="B126" s="59"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="60"/>
+      <c r="B127" s="59"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="60"/>
+      <c r="B128" s="59"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="60"/>
+      <c r="B129" s="59"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="60"/>
+      <c r="B130" s="59"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="60"/>
+      <c r="B131" s="59"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="60"/>
+      <c r="B132" s="59"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="60"/>
+      <c r="B133" s="59"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="60"/>
+      <c r="B134" s="59"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="60"/>
+      <c r="B135" s="59"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="60"/>
+      <c r="B136" s="59"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="60"/>
+      <c r="B137" s="59"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="60"/>
+      <c r="B138" s="59"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="60"/>
+      <c r="B139" s="59"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="60"/>
+      <c r="B140" s="59"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="60"/>
+      <c r="B141" s="59"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="60"/>
+      <c r="B142" s="59"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="60"/>
+      <c r="B143" s="59"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="60"/>
+      <c r="B144" s="59"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="60"/>
+      <c r="B145" s="59"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="4"/>
-      <c r="B146" s="60"/>
+      <c r="B146" s="59"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="4"/>
-      <c r="B147" s="60"/>
+      <c r="B147" s="59"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="4"/>
-      <c r="B148" s="60"/>
+      <c r="B148" s="59"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="4"/>
-      <c r="B149" s="60"/>
+      <c r="B149" s="59"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="4"/>
-      <c r="B150" s="60"/>
+      <c r="B150" s="59"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="4"/>
-      <c r="B151" s="60"/>
+      <c r="B151" s="59"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="4"/>
-      <c r="B152" s="60"/>
+      <c r="B152" s="59"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="4"/>
-      <c r="B153" s="60"/>
+      <c r="B153" s="59"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="4"/>
-      <c r="B154" s="60"/>
+      <c r="B154" s="59"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="4"/>
-      <c r="B155" s="60"/>
+      <c r="B155" s="59"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="4"/>
-      <c r="B156" s="60"/>
+      <c r="B156" s="59"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="4"/>
-      <c r="B157" s="60"/>
+      <c r="B157" s="59"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="4"/>
-      <c r="B158" s="60"/>
+      <c r="B158" s="59"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="4"/>
-      <c r="B159" s="60"/>
+      <c r="B159" s="59"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="4"/>
-      <c r="B160" s="60"/>
+      <c r="B160" s="59"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="4"/>
-      <c r="B161" s="60"/>
+      <c r="B161" s="59"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="4"/>
-      <c r="B162" s="60"/>
+      <c r="B162" s="59"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="4"/>
-      <c r="B163" s="60"/>
+      <c r="B163" s="59"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="4"/>
-      <c r="B164" s="60"/>
+      <c r="B164" s="59"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="4"/>
-      <c r="B165" s="60"/>
+      <c r="B165" s="59"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="4"/>
-      <c r="B166" s="60"/>
+      <c r="B166" s="59"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="4"/>
-      <c r="B167" s="60"/>
+      <c r="B167" s="59"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="4"/>
-      <c r="B168" s="60"/>
+      <c r="B168" s="59"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="4"/>
-      <c r="B169" s="60"/>
+      <c r="B169" s="59"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="4"/>
-      <c r="B170" s="60"/>
+      <c r="B170" s="59"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="4"/>
-      <c r="B171" s="60"/>
+      <c r="B171" s="59"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="4"/>
-      <c r="B172" s="60"/>
+      <c r="B172" s="59"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="4"/>
-      <c r="B173" s="60"/>
+      <c r="B173" s="59"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="4"/>
-      <c r="B174" s="60"/>
+      <c r="B174" s="59"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="4"/>
-      <c r="B175" s="60"/>
+      <c r="B175" s="59"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="4"/>
-      <c r="B176" s="60"/>
+      <c r="B176" s="59"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="4"/>
-      <c r="B177" s="60"/>
+      <c r="B177" s="59"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="4"/>
-      <c r="B178" s="60"/>
+      <c r="B178" s="59"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="4"/>
-      <c r="B179" s="60"/>
+      <c r="B179" s="59"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="4"/>
-      <c r="B180" s="60"/>
+      <c r="B180" s="59"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="4"/>
-      <c r="B181" s="60"/>
+      <c r="B181" s="59"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="4"/>
-      <c r="B182" s="60"/>
+      <c r="B182" s="59"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="4"/>
-      <c r="B183" s="60"/>
+      <c r="B183" s="59"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="4"/>
-      <c r="B184" s="60"/>
+      <c r="B184" s="59"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="4"/>
-      <c r="B185" s="60"/>
+      <c r="B185" s="59"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="4"/>
-      <c r="B186" s="60"/>
+      <c r="B186" s="59"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="4"/>
-      <c r="B187" s="60"/>
+      <c r="B187" s="59"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="4"/>
-      <c r="B188" s="60"/>
+      <c r="B188" s="59"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="4"/>
-      <c r="B189" s="60"/>
+      <c r="B189" s="59"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="4"/>
-      <c r="B190" s="60"/>
+      <c r="B190" s="59"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="4"/>
-      <c r="B191" s="60"/>
+      <c r="B191" s="59"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="4"/>
-      <c r="B192" s="60"/>
+      <c r="B192" s="59"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="4"/>
-      <c r="B193" s="60"/>
+      <c r="B193" s="59"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="4"/>
-      <c r="B194" s="60"/>
+      <c r="B194" s="59"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="4"/>
-      <c r="B195" s="60"/>
+      <c r="B195" s="59"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="4"/>
-      <c r="B196" s="60"/>
+      <c r="B196" s="59"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="4"/>
-      <c r="B197" s="60"/>
+      <c r="B197" s="59"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="4"/>
-      <c r="B198" s="60"/>
+      <c r="B198" s="59"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="4"/>
-      <c r="B199" s="60"/>
+      <c r="B199" s="59"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="4"/>
-      <c r="B200" s="60"/>
+      <c r="B200" s="59"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="4"/>
-      <c r="B201" s="60"/>
+      <c r="B201" s="59"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="4"/>
-      <c r="B202" s="60"/>
+      <c r="B202" s="59"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="4"/>
-      <c r="B203" s="60"/>
+      <c r="B203" s="59"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="4"/>
-      <c r="B204" s="60"/>
+      <c r="B204" s="59"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="4"/>
-      <c r="B205" s="60"/>
+      <c r="B205" s="59"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="4"/>
-      <c r="B206" s="60"/>
+      <c r="B206" s="59"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="4"/>
-      <c r="B207" s="60"/>
+      <c r="B207" s="59"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="4"/>
-      <c r="B208" s="60"/>
+      <c r="B208" s="59"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="4"/>
-      <c r="B209" s="60"/>
+      <c r="B209" s="59"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="4"/>
-      <c r="B210" s="60"/>
+      <c r="B210" s="59"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="4"/>
-      <c r="B211" s="60"/>
+      <c r="B211" s="59"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="4"/>
-      <c r="B212" s="60"/>
+      <c r="B212" s="59"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="4"/>
-      <c r="B213" s="60"/>
+      <c r="B213" s="59"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="4"/>
-      <c r="B214" s="60"/>
+      <c r="B214" s="59"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="4"/>
-      <c r="B215" s="60"/>
+      <c r="B215" s="59"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="4"/>
-      <c r="B216" s="60"/>
+      <c r="B216" s="59"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="4"/>
-      <c r="B217" s="60"/>
+      <c r="B217" s="59"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="4"/>
-      <c r="B218" s="60"/>
+      <c r="B218" s="59"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="4"/>
-      <c r="B219" s="60"/>
+      <c r="B219" s="59"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="4"/>
-      <c r="B220" s="60"/>
+      <c r="B220" s="59"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="4"/>
-      <c r="B221" s="60"/>
+      <c r="B221" s="59"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="4"/>
-      <c r="B222" s="60"/>
+      <c r="B222" s="59"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="4"/>
-      <c r="B223" s="60"/>
+      <c r="B223" s="59"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="4"/>
-      <c r="B224" s="60"/>
+      <c r="B224" s="59"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="4"/>
-      <c r="B225" s="60"/>
+      <c r="B225" s="59"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="4"/>
-      <c r="B226" s="60"/>
+      <c r="B226" s="59"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="4"/>
-      <c r="B227" s="60"/>
+      <c r="B227" s="59"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="4"/>
-      <c r="B228" s="60"/>
+      <c r="B228" s="59"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="4"/>
-      <c r="B229" s="60"/>
+      <c r="B229" s="59"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="4"/>
-      <c r="B230" s="60"/>
+      <c r="B230" s="59"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="4"/>
-      <c r="B231" s="60"/>
+      <c r="B231" s="59"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="4"/>
-      <c r="B232" s="60"/>
+      <c r="B232" s="59"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="4"/>
-      <c r="B233" s="60"/>
+      <c r="B233" s="59"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="4"/>
-      <c r="B234" s="60"/>
+      <c r="B234" s="59"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="4"/>
-      <c r="B235" s="60"/>
+      <c r="B235" s="59"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="4"/>
-      <c r="B236" s="60"/>
+      <c r="B236" s="59"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="4"/>
-      <c r="B237" s="60"/>
+      <c r="B237" s="59"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="4"/>
-      <c r="B238" s="60"/>
+      <c r="B238" s="59"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="4"/>
-      <c r="B239" s="60"/>
+      <c r="B239" s="59"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="4"/>
-      <c r="B240" s="60"/>
+      <c r="B240" s="59"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="4"/>
-      <c r="B241" s="60"/>
+      <c r="B241" s="59"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="4"/>
-      <c r="B242" s="60"/>
+      <c r="B242" s="59"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="4"/>
-      <c r="B243" s="60"/>
+      <c r="B243" s="59"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="4"/>
-      <c r="B244" s="60"/>
+      <c r="B244" s="59"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="4"/>
-      <c r="B245" s="60"/>
+      <c r="B245" s="59"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="4"/>
-      <c r="B246" s="60"/>
+      <c r="B246" s="59"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="4"/>
-      <c r="B247" s="60"/>
+      <c r="B247" s="59"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="4"/>
-      <c r="B248" s="60"/>
+      <c r="B248" s="59"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="4"/>
-      <c r="B249" s="60"/>
+      <c r="B249" s="59"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="4"/>
-      <c r="B250" s="60"/>
+      <c r="B250" s="59"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="4"/>
-      <c r="B251" s="60"/>
+      <c r="B251" s="59"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="4"/>
-      <c r="B252" s="60"/>
+      <c r="B252" s="59"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="4"/>
-      <c r="B253" s="60"/>
+      <c r="B253" s="59"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="4"/>
-      <c r="B254" s="60"/>
+      <c r="B254" s="59"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="4"/>
-      <c r="B255" s="60"/>
+      <c r="B255" s="59"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="4"/>
-      <c r="B256" s="60"/>
+      <c r="B256" s="59"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="4"/>
-      <c r="B257" s="60"/>
+      <c r="B257" s="59"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="4"/>
-      <c r="B258" s="60"/>
+      <c r="B258" s="59"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="4"/>
-      <c r="B259" s="60"/>
+      <c r="B259" s="59"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="4"/>
-      <c r="B260" s="60"/>
+      <c r="B260" s="59"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="4"/>
-      <c r="B261" s="60"/>
+      <c r="B261" s="59"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="4"/>
-      <c r="B262" s="60"/>
+      <c r="B262" s="59"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="4"/>
-      <c r="B263" s="60"/>
+      <c r="B263" s="59"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="4"/>
-      <c r="B264" s="60"/>
+      <c r="B264" s="59"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="4"/>
-      <c r="B265" s="60"/>
+      <c r="B265" s="59"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="4"/>
-      <c r="B266" s="60"/>
+      <c r="B266" s="59"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="4"/>
-      <c r="B267" s="60"/>
+      <c r="B267" s="59"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="4"/>
-      <c r="B268" s="60"/>
+      <c r="B268" s="59"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="4"/>
-      <c r="B269" s="60"/>
+      <c r="B269" s="59"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="4"/>
-      <c r="B270" s="60"/>
+      <c r="B270" s="59"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="4"/>
-      <c r="B271" s="60"/>
+      <c r="B271" s="59"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="4"/>
-      <c r="B272" s="60"/>
+      <c r="B272" s="59"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="4"/>
-      <c r="B273" s="60"/>
+      <c r="B273" s="59"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="4"/>
-      <c r="B274" s="60"/>
+      <c r="B274" s="59"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="4"/>
-      <c r="B275" s="60"/>
+      <c r="B275" s="59"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="4"/>
-      <c r="B276" s="60"/>
+      <c r="B276" s="59"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="4"/>
-      <c r="B277" s="60"/>
+      <c r="B277" s="59"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="4"/>
-      <c r="B278" s="60"/>
+      <c r="B278" s="59"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="4"/>
-      <c r="B279" s="60"/>
+      <c r="B279" s="59"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="4"/>
-      <c r="B280" s="60"/>
+      <c r="B280" s="59"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="4"/>
-      <c r="B281" s="60"/>
+      <c r="B281" s="59"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="4"/>
-      <c r="B282" s="60"/>
+      <c r="B282" s="59"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="4"/>
-      <c r="B283" s="60"/>
+      <c r="B283" s="59"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="4"/>
-      <c r="B284" s="60"/>
+      <c r="B284" s="59"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="4"/>
-      <c r="B285" s="60"/>
+      <c r="B285" s="59"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="4"/>
-      <c r="B286" s="60"/>
+      <c r="B286" s="59"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="4"/>
-      <c r="B287" s="60"/>
+      <c r="B287" s="59"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="4"/>
-      <c r="B288" s="60"/>
+      <c r="B288" s="59"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="4"/>
-      <c r="B289" s="60"/>
+      <c r="B289" s="59"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="4"/>
-      <c r="B290" s="60"/>
+      <c r="B290" s="59"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="4"/>
-      <c r="B291" s="60"/>
+      <c r="B291" s="59"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="4"/>
-      <c r="B292" s="60"/>
+      <c r="B292" s="59"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="4"/>
-      <c r="B293" s="60"/>
+      <c r="B293" s="59"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="4"/>
-      <c r="B294" s="60"/>
+      <c r="B294" s="59"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="4"/>
-      <c r="B295" s="60"/>
+      <c r="B295" s="59"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="4"/>
-      <c r="B296" s="60"/>
+      <c r="B296" s="59"/>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="4"/>
-      <c r="B297" s="60"/>
+      <c r="B297" s="59"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="4"/>
-      <c r="B298" s="60"/>
+      <c r="B298" s="59"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="4"/>
-      <c r="B299" s="60"/>
+      <c r="B299" s="59"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="4"/>
-      <c r="B300" s="60"/>
+      <c r="B300" s="59"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="4"/>
-      <c r="B301" s="60"/>
+      <c r="B301" s="59"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="4"/>
-      <c r="B302" s="60"/>
+      <c r="B302" s="59"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="4"/>
-      <c r="B303" s="60"/>
+      <c r="B303" s="59"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="4"/>
-      <c r="B304" s="60"/>
+      <c r="B304" s="59"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="4"/>
-      <c r="B305" s="60"/>
+      <c r="B305" s="59"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="4"/>
-      <c r="B306" s="60"/>
+      <c r="B306" s="59"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="4"/>
-      <c r="B307" s="60"/>
+      <c r="B307" s="59"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="4"/>
-      <c r="B308" s="60"/>
+      <c r="B308" s="59"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="4"/>
-      <c r="B309" s="60"/>
+      <c r="B309" s="59"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="4"/>
-      <c r="B310" s="60"/>
+      <c r="B310" s="59"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="60"/>
+      <c r="B311" s="59"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="4"/>
-      <c r="B312" s="60"/>
+      <c r="B312" s="59"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="4"/>
-      <c r="B313" s="60"/>
+      <c r="B313" s="59"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="4"/>
-      <c r="B314" s="60"/>
+      <c r="B314" s="59"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="60"/>
+      <c r="B315" s="59"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="60"/>
+      <c r="B316" s="59"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="60"/>
+      <c r="B317" s="59"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="60"/>
+      <c r="B318" s="59"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="4"/>
-      <c r="B319" s="60"/>
+      <c r="B319" s="59"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="60"/>
+      <c r="B320" s="59"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="60"/>
+      <c r="B321" s="59"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="60"/>
+      <c r="B322" s="59"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="60"/>
+      <c r="B323" s="59"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="4"/>
-      <c r="B324" s="60"/>
+      <c r="B324" s="59"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="60"/>
+      <c r="B325" s="59"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="60"/>
+      <c r="B326" s="59"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="60"/>
+      <c r="B327" s="59"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="60"/>
+      <c r="B328" s="59"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="60"/>
+      <c r="B329" s="59"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="60"/>
+      <c r="B330" s="59"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="60"/>
+      <c r="B331" s="59"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="60"/>
+      <c r="B332" s="59"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="60"/>
+      <c r="B333" s="59"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="60"/>
+      <c r="B334" s="59"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="60"/>
+      <c r="B335" s="59"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="60"/>
+      <c r="B336" s="59"/>
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="4"/>
-      <c r="B337" s="60"/>
+      <c r="B337" s="59"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="4"/>
-      <c r="B338" s="60"/>
+      <c r="B338" s="59"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="4"/>
-      <c r="B339" s="60"/>
+      <c r="B339" s="59"/>
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="4"/>
-      <c r="B340" s="60"/>
+      <c r="B340" s="59"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="4"/>
-      <c r="B341" s="60"/>
+      <c r="B341" s="59"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="4"/>
-      <c r="B342" s="60"/>
+      <c r="B342" s="59"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="4"/>
-      <c r="B343" s="60"/>
+      <c r="B343" s="59"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="4"/>
-      <c r="B344" s="60"/>
+      <c r="B344" s="59"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="4"/>
-      <c r="B345" s="60"/>
+      <c r="B345" s="59"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="4"/>
-      <c r="B346" s="60"/>
+      <c r="B346" s="59"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="4"/>
-      <c r="B347" s="60"/>
+      <c r="B347" s="59"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="4"/>
-      <c r="B348" s="60"/>
+      <c r="B348" s="59"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="4"/>
-      <c r="B349" s="60"/>
+      <c r="B349" s="59"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="4"/>
-      <c r="B350" s="60"/>
+      <c r="B350" s="59"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="4"/>
-      <c r="B351" s="60"/>
+      <c r="B351" s="59"/>
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="4"/>
-      <c r="B352" s="60"/>
+      <c r="B352" s="59"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="4"/>
-      <c r="B353" s="60"/>
+      <c r="B353" s="59"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="4"/>
-      <c r="B354" s="60"/>
+      <c r="B354" s="59"/>
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="4"/>
-      <c r="B355" s="60"/>
+      <c r="B355" s="59"/>
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="4"/>
-      <c r="B356" s="60"/>
+      <c r="B356" s="59"/>
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="4"/>
-      <c r="B357" s="60"/>
+      <c r="B357" s="59"/>
     </row>
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="4"/>
-      <c r="B358" s="60"/>
+      <c r="B358" s="59"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="4"/>
-      <c r="B359" s="60"/>
+      <c r="B359" s="59"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="4"/>
-      <c r="B360" s="60"/>
+      <c r="B360" s="59"/>
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="4"/>
-      <c r="B361" s="60"/>
+      <c r="B361" s="59"/>
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="4"/>
-      <c r="B362" s="60"/>
+      <c r="B362" s="59"/>
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="4"/>
-      <c r="B363" s="60"/>
+      <c r="B363" s="59"/>
     </row>
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="4"/>
-      <c r="B364" s="60"/>
+      <c r="B364" s="59"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="4"/>
-      <c r="B365" s="60"/>
+      <c r="B365" s="59"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="4"/>
-      <c r="B366" s="60"/>
+      <c r="B366" s="59"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="4"/>
-      <c r="B367" s="60"/>
+      <c r="B367" s="59"/>
     </row>
     <row r="368" ht="12.75" customHeight="1">
       <c r="A368" s="4"/>
-      <c r="B368" s="60"/>
+      <c r="B368" s="59"/>
     </row>
     <row r="369" ht="12.75" customHeight="1">
       <c r="A369" s="4"/>
-      <c r="B369" s="60"/>
+      <c r="B369" s="59"/>
     </row>
     <row r="370" ht="12.75" customHeight="1">
       <c r="A370" s="4"/>
-      <c r="B370" s="60"/>
+      <c r="B370" s="59"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="4"/>
-      <c r="B371" s="60"/>
+      <c r="B371" s="59"/>
     </row>
     <row r="372" ht="12.75" customHeight="1">
       <c r="A372" s="4"/>
-      <c r="B372" s="60"/>
+      <c r="B372" s="59"/>
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="4"/>
-      <c r="B373" s="60"/>
+      <c r="B373" s="59"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="4"/>
-      <c r="B374" s="60"/>
+      <c r="B374" s="59"/>
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="4"/>
-      <c r="B375" s="60"/>
+      <c r="B375" s="59"/>
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="4"/>
-      <c r="B376" s="60"/>
+      <c r="B376" s="59"/>
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="4"/>
-      <c r="B377" s="60"/>
+      <c r="B377" s="59"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="4"/>
-      <c r="B378" s="60"/>
+      <c r="B378" s="59"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="4"/>
-      <c r="B379" s="60"/>
+      <c r="B379" s="59"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="4"/>
-      <c r="B380" s="60"/>
+      <c r="B380" s="59"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="4"/>
-      <c r="B381" s="60"/>
+      <c r="B381" s="59"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="4"/>
-      <c r="B382" s="60"/>
+      <c r="B382" s="59"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="4"/>
-      <c r="B383" s="60"/>
+      <c r="B383" s="59"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="4"/>
-      <c r="B384" s="60"/>
+      <c r="B384" s="59"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="4"/>
-      <c r="B385" s="60"/>
+      <c r="B385" s="59"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="4"/>
-      <c r="B386" s="60"/>
+      <c r="B386" s="59"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="4"/>
-      <c r="B387" s="60"/>
+      <c r="B387" s="59"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="4"/>
-      <c r="B388" s="60"/>
+      <c r="B388" s="59"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="4"/>
-      <c r="B389" s="60"/>
+      <c r="B389" s="59"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="4"/>
-      <c r="B390" s="60"/>
+      <c r="B390" s="59"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="4"/>
-      <c r="B391" s="60"/>
+      <c r="B391" s="59"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="4"/>
-      <c r="B392" s="60"/>
+      <c r="B392" s="59"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="4"/>
-      <c r="B393" s="60"/>
+      <c r="B393" s="59"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="4"/>
-      <c r="B394" s="60"/>
+      <c r="B394" s="59"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="4"/>
-      <c r="B395" s="60"/>
+      <c r="B395" s="59"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="4"/>
-      <c r="B396" s="60"/>
+      <c r="B396" s="59"/>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="4"/>
-      <c r="B397" s="60"/>
+      <c r="B397" s="59"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="4"/>
-      <c r="B398" s="60"/>
+      <c r="B398" s="59"/>
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="4"/>
-      <c r="B399" s="60"/>
+      <c r="B399" s="59"/>
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="4"/>
-      <c r="B400" s="60"/>
+      <c r="B400" s="59"/>
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="4"/>
-      <c r="B401" s="60"/>
+      <c r="B401" s="59"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="4"/>
-      <c r="B402" s="60"/>
+      <c r="B402" s="59"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="4"/>
-      <c r="B403" s="60"/>
+      <c r="B403" s="59"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="4"/>
-      <c r="B404" s="60"/>
+      <c r="B404" s="59"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="4"/>
-      <c r="B405" s="60"/>
+      <c r="B405" s="59"/>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="4"/>
-      <c r="B406" s="60"/>
+      <c r="B406" s="59"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="4"/>
-      <c r="B407" s="60"/>
+      <c r="B407" s="59"/>
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="4"/>
-      <c r="B408" s="60"/>
+      <c r="B408" s="59"/>
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="4"/>
-      <c r="B409" s="60"/>
+      <c r="B409" s="59"/>
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="4"/>
-      <c r="B410" s="60"/>
+      <c r="B410" s="59"/>
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="4"/>
-      <c r="B411" s="60"/>
+      <c r="B411" s="59"/>
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="4"/>
-      <c r="B412" s="60"/>
+      <c r="B412" s="59"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="4"/>
-      <c r="B413" s="60"/>
+      <c r="B413" s="59"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="4"/>
-      <c r="B414" s="60"/>
+      <c r="B414" s="59"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="4"/>
-      <c r="B415" s="60"/>
+      <c r="B415" s="59"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="4"/>
-      <c r="B416" s="60"/>
+      <c r="B416" s="59"/>
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="4"/>
-      <c r="B417" s="60"/>
+      <c r="B417" s="59"/>
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="4"/>
-      <c r="B418" s="60"/>
+      <c r="B418" s="59"/>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="4"/>
-      <c r="B419" s="60"/>
+      <c r="B419" s="59"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="4"/>
-      <c r="B420" s="60"/>
+      <c r="B420" s="59"/>
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="4"/>
-      <c r="B421" s="60"/>
+      <c r="B421" s="59"/>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="4"/>
-      <c r="B422" s="60"/>
+      <c r="B422" s="59"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="4"/>
-      <c r="B423" s="60"/>
+      <c r="B423" s="59"/>
     </row>
     <row r="424" ht="12.75" customHeight="1">
       <c r="A424" s="4"/>
-      <c r="B424" s="60"/>
+      <c r="B424" s="59"/>
     </row>
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="4"/>
-      <c r="B425" s="60"/>
+      <c r="B425" s="59"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="4"/>
-      <c r="B426" s="60"/>
+      <c r="B426" s="59"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
       <c r="A427" s="4"/>
-      <c r="B427" s="60"/>
+      <c r="B427" s="59"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="4"/>
-      <c r="B428" s="60"/>
+      <c r="B428" s="59"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
       <c r="A429" s="4"/>
-      <c r="B429" s="60"/>
+      <c r="B429" s="59"/>
     </row>
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="4"/>
-      <c r="B430" s="60"/>
+      <c r="B430" s="59"/>
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="4"/>
-      <c r="B431" s="60"/>
+      <c r="B431" s="59"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="4"/>
-      <c r="B432" s="60"/>
+      <c r="B432" s="59"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="4"/>
-      <c r="B433" s="60"/>
+      <c r="B433" s="59"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
       <c r="A434" s="4"/>
-      <c r="B434" s="60"/>
+      <c r="B434" s="59"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="4"/>
-      <c r="B435" s="60"/>
+      <c r="B435" s="59"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="4"/>
-      <c r="B436" s="60"/>
+      <c r="B436" s="59"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="4"/>
-      <c r="B437" s="60"/>
+      <c r="B437" s="59"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
       <c r="A438" s="4"/>
-      <c r="B438" s="60"/>
+      <c r="B438" s="59"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
       <c r="A439" s="4"/>
-      <c r="B439" s="60"/>
+      <c r="B439" s="59"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
       <c r="A440" s="4"/>
-      <c r="B440" s="60"/>
+      <c r="B440" s="59"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="4"/>
-      <c r="B441" s="60"/>
+      <c r="B441" s="59"/>
     </row>
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="4"/>
-      <c r="B442" s="60"/>
+      <c r="B442" s="59"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="4"/>
-      <c r="B443" s="60"/>
+      <c r="B443" s="59"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
       <c r="A444" s="4"/>
-      <c r="B444" s="60"/>
+      <c r="B444" s="59"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="4"/>
-      <c r="B445" s="60"/>
+      <c r="B445" s="59"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
       <c r="A446" s="4"/>
-      <c r="B446" s="60"/>
+      <c r="B446" s="59"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="4"/>
-      <c r="B447" s="60"/>
+      <c r="B447" s="59"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="4"/>
-      <c r="B448" s="60"/>
+      <c r="B448" s="59"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="4"/>
-      <c r="B449" s="60"/>
+      <c r="B449" s="59"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
       <c r="A450" s="4"/>
-      <c r="B450" s="60"/>
+      <c r="B450" s="59"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
       <c r="A451" s="4"/>
-      <c r="B451" s="60"/>
+      <c r="B451" s="59"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
       <c r="A452" s="4"/>
-      <c r="B452" s="60"/>
+      <c r="B452" s="59"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="4"/>
-      <c r="B453" s="60"/>
+      <c r="B453" s="59"/>
     </row>
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="4"/>
-      <c r="B454" s="60"/>
+      <c r="B454" s="59"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="4"/>
-      <c r="B455" s="60"/>
+      <c r="B455" s="59"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="4"/>
-      <c r="B456" s="60"/>
+      <c r="B456" s="59"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="4"/>
-      <c r="B457" s="60"/>
+      <c r="B457" s="59"/>
     </row>
     <row r="458" ht="12.75" customHeight="1">
       <c r="A458" s="4"/>
-      <c r="B458" s="60"/>
+      <c r="B458" s="59"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="4"/>
-      <c r="B459" s="60"/>
+      <c r="B459" s="59"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
       <c r="A460" s="4"/>
-      <c r="B460" s="60"/>
+      <c r="B460" s="59"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
       <c r="A461" s="4"/>
-      <c r="B461" s="60"/>
+      <c r="B461" s="59"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
       <c r="A462" s="4"/>
-      <c r="B462" s="60"/>
+      <c r="B462" s="59"/>
     </row>
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="4"/>
-      <c r="B463" s="60"/>
+      <c r="B463" s="59"/>
     </row>
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="4"/>
-      <c r="B464" s="60"/>
+      <c r="B464" s="59"/>
     </row>
     <row r="465" ht="12.75" customHeight="1">
       <c r="A465" s="4"/>
-      <c r="B465" s="60"/>
+      <c r="B465" s="59"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="4"/>
-      <c r="B466" s="60"/>
+      <c r="B466" s="59"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
       <c r="A467" s="4"/>
-      <c r="B467" s="60"/>
+      <c r="B467" s="59"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
       <c r="A468" s="4"/>
-      <c r="B468" s="60"/>
+      <c r="B468" s="59"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
       <c r="A469" s="4"/>
-      <c r="B469" s="60"/>
+      <c r="B469" s="59"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
       <c r="A470" s="4"/>
-      <c r="B470" s="60"/>
+      <c r="B470" s="59"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
       <c r="A471" s="4"/>
-      <c r="B471" s="60"/>
+      <c r="B471" s="59"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
       <c r="A472" s="4"/>
-      <c r="B472" s="60"/>
+      <c r="B472" s="59"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
       <c r="A473" s="4"/>
-      <c r="B473" s="60"/>
+      <c r="B473" s="59"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
       <c r="A474" s="4"/>
-      <c r="B474" s="60"/>
+      <c r="B474" s="59"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
       <c r="A475" s="4"/>
-      <c r="B475" s="60"/>
+      <c r="B475" s="59"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
       <c r="A476" s="4"/>
-      <c r="B476" s="60"/>
+      <c r="B476" s="59"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
       <c r="A477" s="4"/>
-      <c r="B477" s="60"/>
+      <c r="B477" s="59"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
       <c r="A478" s="4"/>
-      <c r="B478" s="60"/>
+      <c r="B478" s="59"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
       <c r="A479" s="4"/>
-      <c r="B479" s="60"/>
+      <c r="B479" s="59"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
       <c r="A480" s="4"/>
-      <c r="B480" s="60"/>
+      <c r="B480" s="59"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
       <c r="A481" s="4"/>
-      <c r="B481" s="60"/>
+      <c r="B481" s="59"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
       <c r="A482" s="4"/>
-      <c r="B482" s="60"/>
+      <c r="B482" s="59"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
       <c r="A483" s="4"/>
-      <c r="B483" s="60"/>
+      <c r="B483" s="59"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
       <c r="A484" s="4"/>
-      <c r="B484" s="60"/>
+      <c r="B484" s="59"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
       <c r="A485" s="4"/>
-      <c r="B485" s="60"/>
+      <c r="B485" s="59"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
       <c r="A486" s="4"/>
-      <c r="B486" s="60"/>
+      <c r="B486" s="59"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
       <c r="A487" s="4"/>
-      <c r="B487" s="60"/>
+      <c r="B487" s="59"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
       <c r="A488" s="4"/>
-      <c r="B488" s="60"/>
+      <c r="B488" s="59"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
       <c r="A489" s="4"/>
-      <c r="B489" s="60"/>
+      <c r="B489" s="59"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
       <c r="A490" s="4"/>
-      <c r="B490" s="60"/>
+      <c r="B490" s="59"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
       <c r="A491" s="4"/>
-      <c r="B491" s="60"/>
+      <c r="B491" s="59"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
       <c r="A492" s="4"/>
-      <c r="B492" s="60"/>
+      <c r="B492" s="59"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
       <c r="A493" s="4"/>
-      <c r="B493" s="60"/>
+      <c r="B493" s="59"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
       <c r="A494" s="4"/>
-      <c r="B494" s="60"/>
+      <c r="B494" s="59"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
       <c r="A495" s="4"/>
-      <c r="B495" s="60"/>
+      <c r="B495" s="59"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
       <c r="A496" s="4"/>
-      <c r="B496" s="60"/>
+      <c r="B496" s="59"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
       <c r="A497" s="4"/>
-      <c r="B497" s="60"/>
+      <c r="B497" s="59"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
       <c r="A498" s="4"/>
-      <c r="B498" s="60"/>
+      <c r="B498" s="59"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
       <c r="A499" s="4"/>
-      <c r="B499" s="60"/>
+      <c r="B499" s="59"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
       <c r="A500" s="4"/>
-      <c r="B500" s="60"/>
+      <c r="B500" s="59"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
       <c r="A501" s="4"/>
-      <c r="B501" s="60"/>
+      <c r="B501" s="59"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
       <c r="A502" s="4"/>
-      <c r="B502" s="60"/>
+      <c r="B502" s="59"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
       <c r="A503" s="4"/>
-      <c r="B503" s="60"/>
+      <c r="B503" s="59"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
       <c r="A504" s="4"/>
-      <c r="B504" s="60"/>
+      <c r="B504" s="59"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
       <c r="A505" s="4"/>
-      <c r="B505" s="60"/>
+      <c r="B505" s="59"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
       <c r="A506" s="4"/>
-      <c r="B506" s="60"/>
+      <c r="B506" s="59"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
       <c r="A507" s="4"/>
-      <c r="B507" s="60"/>
+      <c r="B507" s="59"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
       <c r="A508" s="4"/>
-      <c r="B508" s="60"/>
+      <c r="B508" s="59"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
       <c r="A509" s="4"/>
-      <c r="B509" s="60"/>
+      <c r="B509" s="59"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
       <c r="A510" s="4"/>
-      <c r="B510" s="60"/>
+      <c r="B510" s="59"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
       <c r="A511" s="4"/>
-      <c r="B511" s="60"/>
+      <c r="B511" s="59"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
       <c r="A512" s="4"/>
-      <c r="B512" s="60"/>
+      <c r="B512" s="59"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
       <c r="A513" s="4"/>
-      <c r="B513" s="60"/>
+      <c r="B513" s="59"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
       <c r="A514" s="4"/>
-      <c r="B514" s="60"/>
+      <c r="B514" s="59"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
       <c r="A515" s="4"/>
-      <c r="B515" s="60"/>
+      <c r="B515" s="59"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
       <c r="A516" s="4"/>
-      <c r="B516" s="60"/>
+      <c r="B516" s="59"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
       <c r="A517" s="4"/>
-      <c r="B517" s="60"/>
+      <c r="B517" s="59"/>
     </row>
     <row r="518" ht="12.75" customHeight="1">
       <c r="A518" s="4"/>
-      <c r="B518" s="60"/>
+      <c r="B518" s="59"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
       <c r="A519" s="4"/>
-      <c r="B519" s="60"/>
+      <c r="B519" s="59"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
       <c r="A520" s="4"/>
-      <c r="B520" s="60"/>
+      <c r="B520" s="59"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
       <c r="A521" s="4"/>
-      <c r="B521" s="60"/>
+      <c r="B521" s="59"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
       <c r="A522" s="4"/>
-      <c r="B522" s="60"/>
+      <c r="B522" s="59"/>
     </row>
     <row r="523" ht="12.75" customHeight="1">
       <c r="A523" s="4"/>
-      <c r="B523" s="60"/>
+      <c r="B523" s="59"/>
     </row>
     <row r="524" ht="12.75" customHeight="1">
       <c r="A524" s="4"/>
-      <c r="B524" s="60"/>
+      <c r="B524" s="59"/>
     </row>
     <row r="525" ht="12.75" customHeight="1">
       <c r="A525" s="4"/>
-      <c r="B525" s="60"/>
+      <c r="B525" s="59"/>
     </row>
     <row r="526" ht="12.75" customHeight="1">
       <c r="A526" s="4"/>
-      <c r="B526" s="60"/>
+      <c r="B526" s="59"/>
     </row>
     <row r="527" ht="12.75" customHeight="1">
       <c r="A527" s="4"/>
-      <c r="B527" s="60"/>
+      <c r="B527" s="59"/>
     </row>
     <row r="528" ht="12.75" customHeight="1">
       <c r="A528" s="4"/>
-      <c r="B528" s="60"/>
+      <c r="B528" s="59"/>
     </row>
     <row r="529" ht="12.75" customHeight="1">
       <c r="A529" s="4"/>
-      <c r="B529" s="60"/>
+      <c r="B529" s="59"/>
     </row>
     <row r="530" ht="12.75" customHeight="1">
       <c r="A530" s="4"/>
-      <c r="B530" s="60"/>
+      <c r="B530" s="59"/>
     </row>
     <row r="531" ht="12.75" customHeight="1">
       <c r="A531" s="4"/>
-      <c r="B531" s="60"/>
+      <c r="B531" s="59"/>
     </row>
     <row r="532" ht="12.75" customHeight="1">
       <c r="A532" s="4"/>
-      <c r="B532" s="60"/>
+      <c r="B532" s="59"/>
     </row>
     <row r="533" ht="12.75" customHeight="1">
       <c r="A533" s="4"/>
-      <c r="B533" s="60"/>
+      <c r="B533" s="59"/>
     </row>
     <row r="534" ht="12.75" customHeight="1">
       <c r="A534" s="4"/>
-      <c r="B534" s="60"/>
+      <c r="B534" s="59"/>
     </row>
     <row r="535" ht="12.75" customHeight="1">
       <c r="A535" s="4"/>
-      <c r="B535" s="60"/>
+      <c r="B535" s="59"/>
     </row>
     <row r="536" ht="12.75" customHeight="1">
       <c r="A536" s="4"/>
-      <c r="B536" s="60"/>
+      <c r="B536" s="59"/>
     </row>
     <row r="537" ht="12.75" customHeight="1">
       <c r="A537" s="4"/>
-      <c r="B537" s="60"/>
+      <c r="B537" s="59"/>
     </row>
     <row r="538" ht="12.75" customHeight="1">
       <c r="A538" s="4"/>
-      <c r="B538" s="60"/>
+      <c r="B538" s="59"/>
     </row>
     <row r="539" ht="12.75" customHeight="1">
       <c r="A539" s="4"/>
-      <c r="B539" s="60"/>
+      <c r="B539" s="59"/>
     </row>
     <row r="540" ht="12.75" customHeight="1">
       <c r="A540" s="4"/>
-      <c r="B540" s="60"/>
+      <c r="B540" s="59"/>
     </row>
     <row r="541" ht="12.75" customHeight="1">
       <c r="A541" s="4"/>
-      <c r="B541" s="60"/>
+      <c r="B541" s="59"/>
     </row>
     <row r="542" ht="12.75" customHeight="1">
       <c r="A542" s="4"/>
-      <c r="B542" s="60"/>
+      <c r="B542" s="59"/>
     </row>
     <row r="543" ht="12.75" customHeight="1">
       <c r="A543" s="4"/>
-      <c r="B543" s="60"/>
+      <c r="B543" s="59"/>
     </row>
     <row r="544" ht="12.75" customHeight="1">
       <c r="A544" s="4"/>
-      <c r="B544" s="60"/>
+      <c r="B544" s="59"/>
     </row>
     <row r="545" ht="12.75" customHeight="1">
       <c r="A545" s="4"/>
-      <c r="B545" s="60"/>
+      <c r="B545" s="59"/>
     </row>
     <row r="546" ht="12.75" customHeight="1">
       <c r="A546" s="4"/>
-      <c r="B546" s="60"/>
+      <c r="B546" s="59"/>
     </row>
     <row r="547" ht="12.75" customHeight="1">
       <c r="A547" s="4"/>
-      <c r="B547" s="60"/>
+      <c r="B547" s="59"/>
     </row>
     <row r="548" ht="12.75" customHeight="1">
       <c r="A548" s="4"/>
-      <c r="B548" s="60"/>
+      <c r="B548" s="59"/>
     </row>
     <row r="549" ht="12.75" customHeight="1">
       <c r="A549" s="4"/>
-      <c r="B549" s="60"/>
+      <c r="B549" s="59"/>
     </row>
     <row r="550" ht="12.75" customHeight="1">
       <c r="A550" s="4"/>
-      <c r="B550" s="60"/>
+      <c r="B550" s="59"/>
     </row>
     <row r="551" ht="12.75" customHeight="1">
       <c r="A551" s="4"/>
-      <c r="B551" s="60"/>
+      <c r="B551" s="59"/>
     </row>
     <row r="552" ht="12.75" customHeight="1">
       <c r="A552" s="4"/>
-      <c r="B552" s="60"/>
+      <c r="B552" s="59"/>
     </row>
     <row r="553" ht="12.75" customHeight="1">
       <c r="A553" s="4"/>
-      <c r="B553" s="60"/>
+      <c r="B553" s="59"/>
     </row>
     <row r="554" ht="12.75" customHeight="1">
       <c r="A554" s="4"/>
-      <c r="B554" s="60"/>
+      <c r="B554" s="59"/>
     </row>
     <row r="555" ht="12.75" customHeight="1">
       <c r="A555" s="4"/>
-      <c r="B555" s="60"/>
+      <c r="B555" s="59"/>
     </row>
     <row r="556" ht="12.75" customHeight="1">
       <c r="A556" s="4"/>
-      <c r="B556" s="60"/>
+      <c r="B556" s="59"/>
     </row>
     <row r="557" ht="12.75" customHeight="1">
       <c r="A557" s="4"/>
-      <c r="B557" s="60"/>
+      <c r="B557" s="59"/>
     </row>
     <row r="558" ht="12.75" customHeight="1">
       <c r="A558" s="4"/>
-      <c r="B558" s="60"/>
+      <c r="B558" s="59"/>
     </row>
     <row r="559" ht="12.75" customHeight="1">
       <c r="A559" s="4"/>
-      <c r="B559" s="60"/>
+      <c r="B559" s="59"/>
     </row>
     <row r="560" ht="12.75" customHeight="1">
       <c r="A560" s="4"/>
-      <c r="B560" s="60"/>
+      <c r="B560" s="59"/>
     </row>
     <row r="561" ht="12.75" customHeight="1">
       <c r="A561" s="4"/>
-      <c r="B561" s="60"/>
+      <c r="B561" s="59"/>
     </row>
     <row r="562" ht="12.75" customHeight="1">
       <c r="A562" s="4"/>
-      <c r="B562" s="60"/>
+      <c r="B562" s="59"/>
     </row>
     <row r="563" ht="12.75" customHeight="1">
       <c r="A563" s="4"/>
-      <c r="B563" s="60"/>
+      <c r="B563" s="59"/>
     </row>
     <row r="564" ht="12.75" customHeight="1">
       <c r="A564" s="4"/>
-      <c r="B564" s="60"/>
+      <c r="B564" s="59"/>
     </row>
     <row r="565" ht="12.75" customHeight="1">
       <c r="A565" s="4"/>
-      <c r="B565" s="60"/>
+      <c r="B565" s="59"/>
     </row>
     <row r="566" ht="12.75" customHeight="1">
       <c r="A566" s="4"/>
-      <c r="B566" s="60"/>
+      <c r="B566" s="59"/>
     </row>
     <row r="567" ht="12.75" customHeight="1">
       <c r="A567" s="4"/>
-      <c r="B567" s="60"/>
+      <c r="B567" s="59"/>
     </row>
     <row r="568" ht="12.75" customHeight="1">
       <c r="A568" s="4"/>
-      <c r="B568" s="60"/>
+      <c r="B568" s="59"/>
     </row>
     <row r="569" ht="12.75" customHeight="1">
       <c r="A569" s="4"/>
-      <c r="B569" s="60"/>
+      <c r="B569" s="59"/>
     </row>
     <row r="570" ht="12.75" customHeight="1">
       <c r="A570" s="4"/>
-      <c r="B570" s="60"/>
+      <c r="B570" s="59"/>
     </row>
     <row r="571" ht="12.75" customHeight="1">
       <c r="A571" s="4"/>
-      <c r="B571" s="60"/>
+      <c r="B571" s="59"/>
     </row>
     <row r="572" ht="12.75" customHeight="1">
       <c r="A572" s="4"/>
-      <c r="B572" s="60"/>
+      <c r="B572" s="59"/>
     </row>
     <row r="573" ht="12.75" customHeight="1">
       <c r="A573" s="4"/>
-      <c r="B573" s="60"/>
+      <c r="B573" s="59"/>
     </row>
     <row r="574" ht="12.75" customHeight="1">
       <c r="A574" s="4"/>
-      <c r="B574" s="60"/>
+      <c r="B574" s="59"/>
     </row>
     <row r="575" ht="12.75" customHeight="1">
       <c r="A575" s="4"/>
-      <c r="B575" s="60"/>
+      <c r="B575" s="59"/>
     </row>
     <row r="576" ht="12.75" customHeight="1">
       <c r="A576" s="4"/>
-      <c r="B576" s="60"/>
+      <c r="B576" s="59"/>
     </row>
     <row r="577" ht="12.75" customHeight="1">
       <c r="A577" s="4"/>
-      <c r="B577" s="60"/>
+      <c r="B577" s="59"/>
     </row>
     <row r="578" ht="12.75" customHeight="1">
       <c r="A578" s="4"/>
-      <c r="B578" s="60"/>
+      <c r="B578" s="59"/>
     </row>
     <row r="579" ht="12.75" customHeight="1">
       <c r="A579" s="4"/>
-      <c r="B579" s="60"/>
+      <c r="B579" s="59"/>
     </row>
     <row r="580" ht="12.75" customHeight="1">
       <c r="A580" s="4"/>
-      <c r="B580" s="60"/>
+      <c r="B580" s="59"/>
     </row>
     <row r="581" ht="12.75" customHeight="1">
       <c r="A581" s="4"/>
-      <c r="B581" s="60"/>
+      <c r="B581" s="59"/>
     </row>
     <row r="582" ht="12.75" customHeight="1">
       <c r="A582" s="4"/>
-      <c r="B582" s="60"/>
+      <c r="B582" s="59"/>
     </row>
     <row r="583" ht="12.75" customHeight="1">
       <c r="A583" s="4"/>
-      <c r="B583" s="60"/>
+      <c r="B583" s="59"/>
     </row>
     <row r="584" ht="12.75" customHeight="1">
       <c r="A584" s="4"/>
-      <c r="B584" s="60"/>
+      <c r="B584" s="59"/>
     </row>
     <row r="585" ht="12.75" customHeight="1">
       <c r="A585" s="4"/>
-      <c r="B585" s="60"/>
+      <c r="B585" s="59"/>
     </row>
     <row r="586" ht="12.75" customHeight="1">
       <c r="A586" s="4"/>
-      <c r="B586" s="60"/>
+      <c r="B586" s="59"/>
     </row>
     <row r="587" ht="12.75" customHeight="1">
       <c r="A587" s="4"/>
-      <c r="B587" s="60"/>
+      <c r="B587" s="59"/>
     </row>
     <row r="588" ht="12.75" customHeight="1">
       <c r="A588" s="4"/>
-      <c r="B588" s="60"/>
+      <c r="B588" s="59"/>
     </row>
     <row r="589" ht="12.75" customHeight="1">
       <c r="A589" s="4"/>
-      <c r="B589" s="60"/>
+      <c r="B589" s="59"/>
     </row>
     <row r="590" ht="12.75" customHeight="1">
       <c r="A590" s="4"/>
-      <c r="B590" s="60"/>
+      <c r="B590" s="59"/>
     </row>
     <row r="591" ht="12.75" customHeight="1">
       <c r="A591" s="4"/>
-      <c r="B591" s="60"/>
+      <c r="B591" s="59"/>
     </row>
     <row r="592" ht="12.75" customHeight="1">
       <c r="A592" s="4"/>
-      <c r="B592" s="60"/>
+      <c r="B592" s="59"/>
     </row>
     <row r="593" ht="12.75" customHeight="1">
       <c r="A593" s="4"/>
-      <c r="B593" s="60"/>
+      <c r="B593" s="59"/>
     </row>
     <row r="594" ht="12.75" customHeight="1">
       <c r="A594" s="4"/>
-      <c r="B594" s="60"/>
+      <c r="B594" s="59"/>
     </row>
     <row r="595" ht="12.75" customHeight="1">
       <c r="A595" s="4"/>
-      <c r="B595" s="60"/>
+      <c r="B595" s="59"/>
     </row>
     <row r="596" ht="12.75" customHeight="1">
       <c r="A596" s="4"/>
-      <c r="B596" s="60"/>
+      <c r="B596" s="59"/>
     </row>
     <row r="597" ht="12.75" customHeight="1">
       <c r="A597" s="4"/>
-      <c r="B597" s="60"/>
+      <c r="B597" s="59"/>
     </row>
     <row r="598" ht="12.75" customHeight="1">
       <c r="A598" s="4"/>
-      <c r="B598" s="60"/>
+      <c r="B598" s="59"/>
     </row>
     <row r="599" ht="12.75" customHeight="1">
       <c r="A599" s="4"/>
-      <c r="B599" s="60"/>
+      <c r="B599" s="59"/>
     </row>
     <row r="600" ht="12.75" customHeight="1">
       <c r="A600" s="4"/>
-      <c r="B600" s="60"/>
+      <c r="B600" s="59"/>
     </row>
     <row r="601" ht="12.75" customHeight="1">
       <c r="A601" s="4"/>
-      <c r="B601" s="60"/>
+      <c r="B601" s="59"/>
     </row>
     <row r="602" ht="12.75" customHeight="1">
       <c r="A602" s="4"/>
-      <c r="B602" s="60"/>
+      <c r="B602" s="59"/>
     </row>
     <row r="603" ht="12.75" customHeight="1">
       <c r="A603" s="4"/>
-      <c r="B603" s="60"/>
+      <c r="B603" s="59"/>
     </row>
     <row r="604" ht="12.75" customHeight="1">
       <c r="A604" s="4"/>
-      <c r="B604" s="60"/>
+      <c r="B604" s="59"/>
     </row>
     <row r="605" ht="12.75" customHeight="1">
       <c r="A605" s="4"/>
-      <c r="B605" s="60"/>
+      <c r="B605" s="59"/>
     </row>
     <row r="606" ht="12.75" customHeight="1">
       <c r="A606" s="4"/>
-      <c r="B606" s="60"/>
+      <c r="B606" s="59"/>
     </row>
     <row r="607" ht="12.75" customHeight="1">
       <c r="A607" s="4"/>
-      <c r="B607" s="60"/>
+      <c r="B607" s="59"/>
     </row>
     <row r="608" ht="12.75" customHeight="1">
       <c r="A608" s="4"/>
-      <c r="B608" s="60"/>
+      <c r="B608" s="59"/>
     </row>
     <row r="609" ht="12.75" customHeight="1">
       <c r="A609" s="4"/>
-      <c r="B609" s="60"/>
+      <c r="B609" s="59"/>
     </row>
     <row r="610" ht="12.75" customHeight="1">
       <c r="A610" s="4"/>
-      <c r="B610" s="60"/>
+      <c r="B610" s="59"/>
     </row>
     <row r="611" ht="12.75" customHeight="1">
       <c r="A611" s="4"/>
-      <c r="B611" s="60"/>
+      <c r="B611" s="59"/>
     </row>
     <row r="612" ht="12.75" customHeight="1">
       <c r="A612" s="4"/>
-      <c r="B612" s="60"/>
+      <c r="B612" s="59"/>
     </row>
     <row r="613" ht="12.75" customHeight="1">
       <c r="A613" s="4"/>
-      <c r="B613" s="60"/>
+      <c r="B613" s="59"/>
     </row>
     <row r="614" ht="12.75" customHeight="1">
       <c r="A614" s="4"/>
-      <c r="B614" s="60"/>
+      <c r="B614" s="59"/>
     </row>
     <row r="615" ht="12.75" customHeight="1">
       <c r="A615" s="4"/>
-      <c r="B615" s="60"/>
+      <c r="B615" s="59"/>
     </row>
     <row r="616" ht="12.75" customHeight="1">
       <c r="A616" s="4"/>
-      <c r="B616" s="60"/>
+      <c r="B616" s="59"/>
     </row>
     <row r="617" ht="12.75" customHeight="1">
       <c r="A617" s="4"/>
-      <c r="B617" s="60"/>
+      <c r="B617" s="59"/>
     </row>
     <row r="618" ht="12.75" customHeight="1">
       <c r="A618" s="4"/>
-      <c r="B618" s="60"/>
+      <c r="B618" s="59"/>
     </row>
     <row r="619" ht="12.75" customHeight="1">
       <c r="A619" s="4"/>
-      <c r="B619" s="60"/>
+      <c r="B619" s="59"/>
     </row>
     <row r="620" ht="12.75" customHeight="1">
       <c r="A620" s="4"/>
-      <c r="B620" s="60"/>
+      <c r="B620" s="59"/>
     </row>
     <row r="621" ht="12.75" customHeight="1">
       <c r="A621" s="4"/>
-      <c r="B621" s="60"/>
+      <c r="B621" s="59"/>
     </row>
     <row r="622" ht="12.75" customHeight="1">
       <c r="A622" s="4"/>
-      <c r="B622" s="60"/>
+      <c r="B622" s="59"/>
     </row>
     <row r="623" ht="12.75" customHeight="1">
       <c r="A623" s="4"/>
-      <c r="B623" s="60"/>
+      <c r="B623" s="59"/>
     </row>
     <row r="624" ht="12.75" customHeight="1">
       <c r="A624" s="4"/>
-      <c r="B624" s="60"/>
+      <c r="B624" s="59"/>
     </row>
     <row r="625" ht="12.75" customHeight="1">
       <c r="A625" s="4"/>
-      <c r="B625" s="60"/>
+      <c r="B625" s="59"/>
     </row>
     <row r="626" ht="12.75" customHeight="1">
       <c r="A626" s="4"/>
-      <c r="B626" s="60"/>
+      <c r="B626" s="59"/>
     </row>
     <row r="627" ht="12.75" customHeight="1">
       <c r="A627" s="4"/>
-      <c r="B627" s="60"/>
+      <c r="B627" s="59"/>
     </row>
     <row r="628" ht="12.75" customHeight="1">
       <c r="A628" s="4"/>
-      <c r="B628" s="60"/>
+      <c r="B628" s="59"/>
     </row>
     <row r="629" ht="12.75" customHeight="1">
       <c r="A629" s="4"/>
-      <c r="B629" s="60"/>
+      <c r="B629" s="59"/>
     </row>
     <row r="630" ht="12.75" customHeight="1">
       <c r="A630" s="4"/>
-      <c r="B630" s="60"/>
+      <c r="B630" s="59"/>
     </row>
     <row r="631" ht="12.75" customHeight="1">
       <c r="A631" s="4"/>
-      <c r="B631" s="60"/>
+      <c r="B631" s="59"/>
     </row>
     <row r="632" ht="12.75" customHeight="1">
       <c r="A632" s="4"/>
-      <c r="B632" s="60"/>
+      <c r="B632" s="59"/>
     </row>
     <row r="633" ht="12.75" customHeight="1">
       <c r="A633" s="4"/>
-      <c r="B633" s="60"/>
+      <c r="B633" s="59"/>
     </row>
     <row r="634" ht="12.75" customHeight="1">
       <c r="A634" s="4"/>
-      <c r="B634" s="60"/>
+      <c r="B634" s="59"/>
     </row>
     <row r="635" ht="12.75" customHeight="1">
       <c r="A635" s="4"/>
-      <c r="B635" s="60"/>
+      <c r="B635" s="59"/>
     </row>
     <row r="636" ht="12.75" customHeight="1">
       <c r="A636" s="4"/>
-      <c r="B636" s="60"/>
+      <c r="B636" s="59"/>
     </row>
     <row r="637" ht="12.75" customHeight="1">
       <c r="A637" s="4"/>
-      <c r="B637" s="60"/>
+      <c r="B637" s="59"/>
     </row>
     <row r="638" ht="12.75" customHeight="1">
       <c r="A638" s="4"/>
-      <c r="B638" s="60"/>
+      <c r="B638" s="59"/>
     </row>
     <row r="639" ht="12.75" customHeight="1">
       <c r="A639" s="4"/>
-      <c r="B639" s="60"/>
+      <c r="B639" s="59"/>
     </row>
     <row r="640" ht="12.75" customHeight="1">
       <c r="A640" s="4"/>
-      <c r="B640" s="60"/>
+      <c r="B640" s="59"/>
     </row>
     <row r="641" ht="12.75" customHeight="1">
       <c r="A641" s="4"/>
-      <c r="B641" s="60"/>
+      <c r="B641" s="59"/>
     </row>
     <row r="642" ht="12.75" customHeight="1">
       <c r="A642" s="4"/>
-      <c r="B642" s="60"/>
+      <c r="B642" s="59"/>
     </row>
     <row r="643" ht="12.75" customHeight="1">
       <c r="A643" s="4"/>
-      <c r="B643" s="60"/>
+      <c r="B643" s="59"/>
     </row>
     <row r="644" ht="12.75" customHeight="1">
       <c r="A644" s="4"/>
-      <c r="B644" s="60"/>
+      <c r="B644" s="59"/>
     </row>
     <row r="645" ht="12.75" customHeight="1">
       <c r="A645" s="4"/>
-      <c r="B645" s="60"/>
+      <c r="B645" s="59"/>
     </row>
     <row r="646" ht="12.75" customHeight="1">
       <c r="A646" s="4"/>
-      <c r="B646" s="60"/>
+      <c r="B646" s="59"/>
     </row>
     <row r="647" ht="12.75" customHeight="1">
       <c r="A647" s="4"/>
-      <c r="B647" s="60"/>
+      <c r="B647" s="59"/>
     </row>
     <row r="648" ht="12.75" customHeight="1">
       <c r="A648" s="4"/>
-      <c r="B648" s="60"/>
+      <c r="B648" s="59"/>
     </row>
     <row r="649" ht="12.75" customHeight="1">
       <c r="A649" s="4"/>
-      <c r="B649" s="60"/>
+      <c r="B649" s="59"/>
     </row>
     <row r="650" ht="12.75" customHeight="1">
       <c r="A650" s="4"/>
-      <c r="B650" s="60"/>
+      <c r="B650" s="59"/>
     </row>
     <row r="651" ht="12.75" customHeight="1">
       <c r="A651" s="4"/>
-      <c r="B651" s="60"/>
+      <c r="B651" s="59"/>
     </row>
     <row r="652" ht="12.75" customHeight="1">
       <c r="A652" s="4"/>
-      <c r="B652" s="60"/>
+      <c r="B652" s="59"/>
     </row>
     <row r="653" ht="12.75" customHeight="1">
       <c r="A653" s="4"/>
-      <c r="B653" s="60"/>
+      <c r="B653" s="59"/>
     </row>
     <row r="654" ht="12.75" customHeight="1">
       <c r="A654" s="4"/>
-      <c r="B654" s="60"/>
+      <c r="B654" s="59"/>
     </row>
     <row r="655" ht="12.75" customHeight="1">
       <c r="A655" s="4"/>
-      <c r="B655" s="60"/>
+      <c r="B655" s="59"/>
     </row>
     <row r="656" ht="12.75" customHeight="1">
       <c r="A656" s="4"/>
-      <c r="B656" s="60"/>
+      <c r="B656" s="59"/>
     </row>
     <row r="657" ht="12.75" customHeight="1">
       <c r="A657" s="4"/>
-      <c r="B657" s="60"/>
+      <c r="B657" s="59"/>
     </row>
     <row r="658" ht="12.75" customHeight="1">
       <c r="A658" s="4"/>
-      <c r="B658" s="60"/>
+      <c r="B658" s="59"/>
     </row>
     <row r="659" ht="12.75" customHeight="1">
       <c r="A659" s="4"/>
-      <c r="B659" s="60"/>
+      <c r="B659" s="59"/>
     </row>
     <row r="660" ht="12.75" customHeight="1">
       <c r="A660" s="4"/>
-      <c r="B660" s="60"/>
+      <c r="B660" s="59"/>
     </row>
     <row r="661" ht="12.75" customHeight="1">
       <c r="A661" s="4"/>
-      <c r="B661" s="60"/>
+      <c r="B661" s="59"/>
     </row>
     <row r="662" ht="12.75" customHeight="1">
       <c r="A662" s="4"/>
-      <c r="B662" s="60"/>
+      <c r="B662" s="59"/>
     </row>
     <row r="663" ht="12.75" customHeight="1">
       <c r="A663" s="4"/>
-      <c r="B663" s="60"/>
+      <c r="B663" s="59"/>
     </row>
     <row r="664" ht="12.75" customHeight="1">
       <c r="A664" s="4"/>
-      <c r="B664" s="60"/>
+      <c r="B664" s="59"/>
     </row>
     <row r="665" ht="12.75" customHeight="1">
       <c r="A665" s="4"/>
-      <c r="B665" s="60"/>
+      <c r="B665" s="59"/>
     </row>
     <row r="666" ht="12.75" customHeight="1">
       <c r="A666" s="4"/>
-      <c r="B666" s="60"/>
+      <c r="B666" s="59"/>
     </row>
     <row r="667" ht="12.75" customHeight="1">
       <c r="A667" s="4"/>
-      <c r="B667" s="60"/>
+      <c r="B667" s="59"/>
     </row>
     <row r="668" ht="12.75" customHeight="1">
       <c r="A668" s="4"/>
-      <c r="B668" s="60"/>
+      <c r="B668" s="59"/>
     </row>
     <row r="669" ht="12.75" customHeight="1">
       <c r="A669" s="4"/>
-      <c r="B669" s="60"/>
+      <c r="B669" s="59"/>
     </row>
     <row r="670" ht="12.75" customHeight="1">
       <c r="A670" s="4"/>
-      <c r="B670" s="60"/>
+      <c r="B670" s="59"/>
     </row>
     <row r="671" ht="12.75" customHeight="1">
       <c r="A671" s="4"/>
-      <c r="B671" s="60"/>
+      <c r="B671" s="59"/>
     </row>
     <row r="672" ht="12.75" customHeight="1">
       <c r="A672" s="4"/>
-      <c r="B672" s="60"/>
+      <c r="B672" s="59"/>
     </row>
     <row r="673" ht="12.75" customHeight="1">
       <c r="A673" s="4"/>
-      <c r="B673" s="60"/>
+      <c r="B673" s="59"/>
     </row>
     <row r="674" ht="12.75" customHeight="1">
       <c r="A674" s="4"/>
-      <c r="B674" s="60"/>
+      <c r="B674" s="59"/>
     </row>
     <row r="675" ht="12.75" customHeight="1">
       <c r="A675" s="4"/>
-      <c r="B675" s="60"/>
+      <c r="B675" s="59"/>
     </row>
     <row r="676" ht="12.75" customHeight="1">
       <c r="A676" s="4"/>
-      <c r="B676" s="60"/>
+      <c r="B676" s="59"/>
     </row>
     <row r="677" ht="12.75" customHeight="1">
       <c r="A677" s="4"/>
-      <c r="B677" s="60"/>
+      <c r="B677" s="59"/>
     </row>
     <row r="678" ht="12.75" customHeight="1">
       <c r="A678" s="4"/>
-      <c r="B678" s="60"/>
+      <c r="B678" s="59"/>
     </row>
     <row r="679" ht="12.75" customHeight="1">
       <c r="A679" s="4"/>
-      <c r="B679" s="60"/>
+      <c r="B679" s="59"/>
     </row>
     <row r="680" ht="12.75" customHeight="1">
       <c r="A680" s="4"/>
-      <c r="B680" s="60"/>
+      <c r="B680" s="59"/>
     </row>
     <row r="681" ht="12.75" customHeight="1">
       <c r="A681" s="4"/>
-      <c r="B681" s="60"/>
+      <c r="B681" s="59"/>
     </row>
     <row r="682" ht="12.75" customHeight="1">
       <c r="A682" s="4"/>
-      <c r="B682" s="60"/>
+      <c r="B682" s="59"/>
     </row>
     <row r="683" ht="12.75" customHeight="1">
       <c r="A683" s="4"/>
-      <c r="B683" s="60"/>
+      <c r="B683" s="59"/>
     </row>
     <row r="684" ht="12.75" customHeight="1">
       <c r="A684" s="4"/>
-      <c r="B684" s="60"/>
+      <c r="B684" s="59"/>
     </row>
     <row r="685" ht="12.75" customHeight="1">
       <c r="A685" s="4"/>
-      <c r="B685" s="60"/>
+      <c r="B685" s="59"/>
     </row>
     <row r="686" ht="12.75" customHeight="1">
       <c r="A686" s="4"/>
-      <c r="B686" s="60"/>
+      <c r="B686" s="59"/>
     </row>
     <row r="687" ht="12.75" customHeight="1">
       <c r="A687" s="4"/>
-      <c r="B687" s="60"/>
+      <c r="B687" s="59"/>
     </row>
     <row r="688" ht="12.75" customHeight="1">
       <c r="A688" s="4"/>
-      <c r="B688" s="60"/>
+      <c r="B688" s="59"/>
     </row>
     <row r="689" ht="12.75" customHeight="1">
       <c r="A689" s="4"/>
-      <c r="B689" s="60"/>
+      <c r="B689" s="59"/>
     </row>
     <row r="690" ht="12.75" customHeight="1">
       <c r="A690" s="4"/>
-      <c r="B690" s="60"/>
+      <c r="B690" s="59"/>
     </row>
     <row r="691" ht="12.75" customHeight="1">
       <c r="A691" s="4"/>
-      <c r="B691" s="60"/>
+      <c r="B691" s="59"/>
     </row>
     <row r="692" ht="12.75" customHeight="1">
       <c r="A692" s="4"/>
-      <c r="B692" s="60"/>
+      <c r="B692" s="59"/>
     </row>
     <row r="693" ht="12.75" customHeight="1">
       <c r="A693" s="4"/>
-      <c r="B693" s="60"/>
+      <c r="B693" s="59"/>
     </row>
     <row r="694" ht="12.75" customHeight="1">
       <c r="A694" s="4"/>
-      <c r="B694" s="60"/>
+      <c r="B694" s="59"/>
     </row>
     <row r="695" ht="12.75" customHeight="1">
       <c r="A695" s="4"/>
-      <c r="B695" s="60"/>
+      <c r="B695" s="59"/>
     </row>
     <row r="696" ht="12.75" customHeight="1">
       <c r="A696" s="4"/>
-      <c r="B696" s="60"/>
+      <c r="B696" s="59"/>
     </row>
     <row r="697" ht="12.75" customHeight="1">
       <c r="A697" s="4"/>
-      <c r="B697" s="60"/>
+      <c r="B697" s="59"/>
     </row>
     <row r="698" ht="12.75" customHeight="1">
       <c r="A698" s="4"/>
-      <c r="B698" s="60"/>
+      <c r="B698" s="59"/>
     </row>
     <row r="699" ht="12.75" customHeight="1">
       <c r="A699" s="4"/>
-      <c r="B699" s="60"/>
+      <c r="B699" s="59"/>
     </row>
     <row r="700" ht="12.75" customHeight="1">
       <c r="A700" s="4"/>
-      <c r="B700" s="60"/>
+      <c r="B700" s="59"/>
     </row>
     <row r="701" ht="12.75" customHeight="1">
       <c r="A701" s="4"/>
-      <c r="B701" s="60"/>
+      <c r="B701" s="59"/>
     </row>
     <row r="702" ht="12.75" customHeight="1">
       <c r="A702" s="4"/>
-      <c r="B702" s="60"/>
+      <c r="B702" s="59"/>
     </row>
     <row r="703" ht="12.75" customHeight="1">
       <c r="A703" s="4"/>
-      <c r="B703" s="60"/>
+      <c r="B703" s="59"/>
     </row>
     <row r="704" ht="12.75" customHeight="1">
       <c r="A704" s="4"/>
-      <c r="B704" s="60"/>
+      <c r="B704" s="59"/>
     </row>
     <row r="705" ht="12.75" customHeight="1">
       <c r="A705" s="4"/>
-      <c r="B705" s="60"/>
+      <c r="B705" s="59"/>
     </row>
     <row r="706" ht="12.75" customHeight="1">
       <c r="A706" s="4"/>
-      <c r="B706" s="60"/>
+      <c r="B706" s="59"/>
     </row>
     <row r="707" ht="12.75" customHeight="1">
       <c r="A707" s="4"/>
-      <c r="B707" s="60"/>
+      <c r="B707" s="59"/>
     </row>
     <row r="708" ht="12.75" customHeight="1">
       <c r="A708" s="4"/>
-      <c r="B708" s="60"/>
+      <c r="B708" s="59"/>
     </row>
     <row r="709" ht="12.75" customHeight="1">
       <c r="A709" s="4"/>
-      <c r="B709" s="60"/>
+      <c r="B709" s="59"/>
     </row>
     <row r="710" ht="12.75" customHeight="1">
       <c r="A710" s="4"/>
-      <c r="B710" s="60"/>
+      <c r="B710" s="59"/>
     </row>
     <row r="711" ht="12.75" customHeight="1">
       <c r="A711" s="4"/>
-      <c r="B711" s="60"/>
+      <c r="B711" s="59"/>
     </row>
     <row r="712" ht="12.75" customHeight="1">
       <c r="A712" s="4"/>
-      <c r="B712" s="60"/>
+      <c r="B712" s="59"/>
     </row>
     <row r="713" ht="12.75" customHeight="1">
       <c r="A713" s="4"/>
-      <c r="B713" s="60"/>
+      <c r="B713" s="59"/>
     </row>
     <row r="714" ht="12.75" customHeight="1">
       <c r="A714" s="4"/>
-      <c r="B714" s="60"/>
+      <c r="B714" s="59"/>
     </row>
     <row r="715" ht="12.75" customHeight="1">
       <c r="A715" s="4"/>
-      <c r="B715" s="60"/>
+      <c r="B715" s="59"/>
     </row>
     <row r="716" ht="12.75" customHeight="1">
       <c r="A716" s="4"/>
-      <c r="B716" s="60"/>
+      <c r="B716" s="59"/>
     </row>
     <row r="717" ht="12.75" customHeight="1">
       <c r="A717" s="4"/>
-      <c r="B717" s="60"/>
+      <c r="B717" s="59"/>
     </row>
     <row r="718" ht="12.75" customHeight="1">
       <c r="A718" s="4"/>
-      <c r="B718" s="60"/>
+      <c r="B718" s="59"/>
     </row>
     <row r="719" ht="12.75" customHeight="1">
       <c r="A719" s="4"/>
-      <c r="B719" s="60"/>
+      <c r="B719" s="59"/>
     </row>
     <row r="720" ht="12.75" customHeight="1">
       <c r="A720" s="4"/>
-      <c r="B720" s="60"/>
+      <c r="B720" s="59"/>
     </row>
     <row r="721" ht="12.75" customHeight="1">
       <c r="A721" s="4"/>
-      <c r="B721" s="60"/>
+      <c r="B721" s="59"/>
     </row>
     <row r="722" ht="12.75" customHeight="1">
       <c r="A722" s="4"/>
-      <c r="B722" s="60"/>
+      <c r="B722" s="59"/>
     </row>
     <row r="723" ht="12.75" customHeight="1">
       <c r="A723" s="4"/>
-      <c r="B723" s="60"/>
+      <c r="B723" s="59"/>
     </row>
     <row r="724" ht="12.75" customHeight="1">
       <c r="A724" s="4"/>
-      <c r="B724" s="60"/>
+      <c r="B724" s="59"/>
     </row>
     <row r="725" ht="12.75" customHeight="1">
       <c r="A725" s="4"/>
-      <c r="B725" s="60"/>
+      <c r="B725" s="59"/>
     </row>
     <row r="726" ht="12.75" customHeight="1">
       <c r="A726" s="4"/>
-      <c r="B726" s="60"/>
+      <c r="B726" s="59"/>
     </row>
     <row r="727" ht="12.75" customHeight="1">
       <c r="A727" s="4"/>
-      <c r="B727" s="60"/>
+      <c r="B727" s="59"/>
     </row>
     <row r="728" ht="12.75" customHeight="1">
       <c r="A728" s="4"/>
-      <c r="B728" s="60"/>
+      <c r="B728" s="59"/>
     </row>
     <row r="729" ht="12.75" customHeight="1">
       <c r="A729" s="4"/>
-      <c r="B729" s="60"/>
+      <c r="B729" s="59"/>
     </row>
     <row r="730" ht="12.75" customHeight="1">
       <c r="A730" s="4"/>
-      <c r="B730" s="60"/>
+      <c r="B730" s="59"/>
     </row>
     <row r="731" ht="12.75" customHeight="1">
       <c r="A731" s="4"/>
-      <c r="B731" s="60"/>
+      <c r="B731" s="59"/>
     </row>
     <row r="732" ht="12.75" customHeight="1">
       <c r="A732" s="4"/>
-      <c r="B732" s="60"/>
+      <c r="B732" s="59"/>
     </row>
     <row r="733" ht="12.75" customHeight="1">
       <c r="A733" s="4"/>
-      <c r="B733" s="60"/>
+      <c r="B733" s="59"/>
     </row>
     <row r="734" ht="12.75" customHeight="1">
       <c r="A734" s="4"/>
-      <c r="B734" s="60"/>
+      <c r="B734" s="59"/>
     </row>
     <row r="735" ht="12.75" customHeight="1">
       <c r="A735" s="4"/>
-      <c r="B735" s="60"/>
+      <c r="B735" s="59"/>
     </row>
     <row r="736" ht="12.75" customHeight="1">
       <c r="A736" s="4"/>
-      <c r="B736" s="60"/>
+      <c r="B736" s="59"/>
     </row>
     <row r="737" ht="12.75" customHeight="1">
       <c r="A737" s="4"/>
-      <c r="B737" s="60"/>
+      <c r="B737" s="59"/>
     </row>
     <row r="738" ht="12.75" customHeight="1">
       <c r="A738" s="4"/>
-      <c r="B738" s="60"/>
+      <c r="B738" s="59"/>
     </row>
     <row r="739" ht="12.75" customHeight="1">
       <c r="A739" s="4"/>
-      <c r="B739" s="60"/>
+      <c r="B739" s="59"/>
     </row>
     <row r="740" ht="12.75" customHeight="1">
       <c r="A740" s="4"/>
-      <c r="B740" s="60"/>
+      <c r="B740" s="59"/>
     </row>
     <row r="741" ht="12.75" customHeight="1">
       <c r="A741" s="4"/>
-      <c r="B741" s="60"/>
+      <c r="B741" s="59"/>
     </row>
     <row r="742" ht="12.75" customHeight="1">
       <c r="A742" s="4"/>
-      <c r="B742" s="60"/>
+      <c r="B742" s="59"/>
     </row>
     <row r="743" ht="12.75" customHeight="1">
       <c r="A743" s="4"/>
-      <c r="B743" s="60"/>
+      <c r="B743" s="59"/>
     </row>
     <row r="744" ht="12.75" customHeight="1">
       <c r="A744" s="4"/>
-      <c r="B744" s="60"/>
+      <c r="B744" s="59"/>
     </row>
     <row r="745" ht="12.75" customHeight="1">
       <c r="A745" s="4"/>
-      <c r="B745" s="60"/>
+      <c r="B745" s="59"/>
     </row>
     <row r="746" ht="12.75" customHeight="1">
       <c r="A746" s="4"/>
-      <c r="B746" s="60"/>
+      <c r="B746" s="59"/>
     </row>
     <row r="747" ht="12.75" customHeight="1">
       <c r="A747" s="4"/>
-      <c r="B747" s="60"/>
+      <c r="B747" s="59"/>
     </row>
     <row r="748" ht="12.75" customHeight="1">
       <c r="A748" s="4"/>
-      <c r="B748" s="60"/>
+      <c r="B748" s="59"/>
     </row>
     <row r="749" ht="12.75" customHeight="1">
       <c r="A749" s="4"/>
-      <c r="B749" s="60"/>
+      <c r="B749" s="59"/>
     </row>
     <row r="750" ht="12.75" customHeight="1">
       <c r="A750" s="4"/>
-      <c r="B750" s="60"/>
+      <c r="B750" s="59"/>
     </row>
     <row r="751" ht="12.75" customHeight="1">
       <c r="A751" s="4"/>
-      <c r="B751" s="60"/>
+      <c r="B751" s="59"/>
     </row>
     <row r="752" ht="12.75" customHeight="1">
       <c r="A752" s="4"/>
-      <c r="B752" s="60"/>
+      <c r="B752" s="59"/>
     </row>
     <row r="753" ht="12.75" customHeight="1">
       <c r="A753" s="4"/>
-      <c r="B753" s="60"/>
+      <c r="B753" s="59"/>
     </row>
     <row r="754" ht="12.75" customHeight="1">
       <c r="A754" s="4"/>
-      <c r="B754" s="60"/>
+      <c r="B754" s="59"/>
     </row>
     <row r="755" ht="12.75" customHeight="1">
       <c r="A755" s="4"/>
-      <c r="B755" s="60"/>
+      <c r="B755" s="59"/>
     </row>
     <row r="756" ht="12.75" customHeight="1">
       <c r="A756" s="4"/>
-      <c r="B756" s="60"/>
+      <c r="B756" s="59"/>
     </row>
     <row r="757" ht="12.75" customHeight="1">
       <c r="A757" s="4"/>
-      <c r="B757" s="60"/>
+      <c r="B757" s="59"/>
     </row>
     <row r="758" ht="12.75" customHeight="1">
       <c r="A758" s="4"/>
-      <c r="B758" s="60"/>
+      <c r="B758" s="59"/>
     </row>
     <row r="759" ht="12.75" customHeight="1">
       <c r="A759" s="4"/>
-      <c r="B759" s="60"/>
+      <c r="B759" s="59"/>
     </row>
     <row r="760" ht="12.75" customHeight="1">
       <c r="A760" s="4"/>
-      <c r="B760" s="60"/>
+      <c r="B760" s="59"/>
     </row>
     <row r="761" ht="12.75" customHeight="1">
       <c r="A761" s="4"/>
-      <c r="B761" s="60"/>
+      <c r="B761" s="59"/>
     </row>
     <row r="762" ht="12.75" customHeight="1">
       <c r="A762" s="4"/>
-      <c r="B762" s="60"/>
+      <c r="B762" s="59"/>
     </row>
     <row r="763" ht="12.75" customHeight="1">
       <c r="A763" s="4"/>
-      <c r="B763" s="60"/>
+      <c r="B763" s="59"/>
     </row>
     <row r="764" ht="12.75" customHeight="1">
       <c r="A764" s="4"/>
-      <c r="B764" s="60"/>
+      <c r="B764" s="59"/>
     </row>
     <row r="765" ht="12.75" customHeight="1">
       <c r="A765" s="4"/>
-      <c r="B765" s="60"/>
+      <c r="B765" s="59"/>
     </row>
     <row r="766" ht="12.75" customHeight="1">
       <c r="A766" s="4"/>
-      <c r="B766" s="60"/>
+      <c r="B766" s="59"/>
     </row>
     <row r="767" ht="12.75" customHeight="1">
       <c r="A767" s="4"/>
-      <c r="B767" s="60"/>
+      <c r="B767" s="59"/>
     </row>
     <row r="768" ht="12.75" customHeight="1">
       <c r="A768" s="4"/>
-      <c r="B768" s="60"/>
+      <c r="B768" s="59"/>
     </row>
     <row r="769" ht="12.75" customHeight="1">
       <c r="A769" s="4"/>
-      <c r="B769" s="60"/>
+      <c r="B769" s="59"/>
     </row>
     <row r="770" ht="12.75" customHeight="1">
       <c r="A770" s="4"/>
-      <c r="B770" s="60"/>
+      <c r="B770" s="59"/>
     </row>
     <row r="771" ht="12.75" customHeight="1">
       <c r="A771" s="4"/>
-      <c r="B771" s="60"/>
+      <c r="B771" s="59"/>
     </row>
     <row r="772" ht="12.75" customHeight="1">
       <c r="A772" s="4"/>
-      <c r="B772" s="60"/>
+      <c r="B772" s="59"/>
     </row>
     <row r="773" ht="12.75" customHeight="1">
       <c r="A773" s="4"/>
-      <c r="B773" s="60"/>
+      <c r="B773" s="59"/>
     </row>
     <row r="774" ht="12.75" customHeight="1">
       <c r="A774" s="4"/>
-      <c r="B774" s="60"/>
+      <c r="B774" s="59"/>
     </row>
     <row r="775" ht="12.75" customHeight="1">
       <c r="A775" s="4"/>
-      <c r="B775" s="60"/>
+      <c r="B775" s="59"/>
     </row>
     <row r="776" ht="12.75" customHeight="1">
       <c r="A776" s="4"/>
-      <c r="B776" s="60"/>
+      <c r="B776" s="59"/>
     </row>
     <row r="777" ht="12.75" customHeight="1">
       <c r="A777" s="4"/>
-      <c r="B777" s="60"/>
+      <c r="B777" s="59"/>
     </row>
     <row r="778" ht="12.75" customHeight="1">
       <c r="A778" s="4"/>
-      <c r="B778" s="60"/>
+      <c r="B778" s="59"/>
     </row>
     <row r="779" ht="12.75" customHeight="1">
       <c r="A779" s="4"/>
-      <c r="B779" s="60"/>
+      <c r="B779" s="59"/>
     </row>
     <row r="780" ht="12.75" customHeight="1">
       <c r="A780" s="4"/>
-      <c r="B780" s="60"/>
+      <c r="B780" s="59"/>
     </row>
     <row r="781" ht="12.75" customHeight="1">
       <c r="A781" s="4"/>
-      <c r="B781" s="60"/>
+      <c r="B781" s="59"/>
     </row>
     <row r="782" ht="12.75" customHeight="1">
       <c r="A782" s="4"/>
-      <c r="B782" s="60"/>
+      <c r="B782" s="59"/>
     </row>
     <row r="783" ht="12.75" customHeight="1">
       <c r="A783" s="4"/>
-      <c r="B783" s="60"/>
+      <c r="B783" s="59"/>
     </row>
     <row r="784" ht="12.75" customHeight="1">
       <c r="A784" s="4"/>
-      <c r="B784" s="60"/>
+      <c r="B784" s="59"/>
     </row>
     <row r="785" ht="12.75" customHeight="1">
       <c r="A785" s="4"/>
-      <c r="B785" s="60"/>
+      <c r="B785" s="59"/>
     </row>
     <row r="786" ht="12.75" customHeight="1">
       <c r="A786" s="4"/>
-      <c r="B786" s="60"/>
+      <c r="B786" s="59"/>
     </row>
     <row r="787" ht="12.75" customHeight="1">
       <c r="A787" s="4"/>
-      <c r="B787" s="60"/>
+      <c r="B787" s="59"/>
     </row>
     <row r="788" ht="12.75" customHeight="1">
       <c r="A788" s="4"/>
-      <c r="B788" s="60"/>
+      <c r="B788" s="59"/>
     </row>
     <row r="789" ht="12.75" customHeight="1">
       <c r="A789" s="4"/>
-      <c r="B789" s="60"/>
+      <c r="B789" s="59"/>
     </row>
     <row r="790" ht="12.75" customHeight="1">
       <c r="A790" s="4"/>
-      <c r="B790" s="60"/>
+      <c r="B790" s="59"/>
     </row>
     <row r="791" ht="12.75" customHeight="1">
       <c r="A791" s="4"/>
-      <c r="B791" s="60"/>
+      <c r="B791" s="59"/>
     </row>
     <row r="792" ht="12.75" customHeight="1">
       <c r="A792" s="4"/>
-      <c r="B792" s="60"/>
+      <c r="B792" s="59"/>
     </row>
     <row r="793" ht="12.75" customHeight="1">
       <c r="A793" s="4"/>
-      <c r="B793" s="60"/>
+      <c r="B793" s="59"/>
     </row>
     <row r="794" ht="12.75" customHeight="1">
       <c r="A794" s="4"/>
-      <c r="B794" s="60"/>
+      <c r="B794" s="59"/>
     </row>
     <row r="795" ht="12.75" customHeight="1">
       <c r="A795" s="4"/>
-      <c r="B795" s="60"/>
+      <c r="B795" s="59"/>
     </row>
     <row r="796" ht="12.75" customHeight="1">
       <c r="A796" s="4"/>
-      <c r="B796" s="60"/>
+      <c r="B796" s="59"/>
     </row>
     <row r="797" ht="12.75" customHeight="1">
       <c r="A797" s="4"/>
-      <c r="B797" s="60"/>
+      <c r="B797" s="59"/>
     </row>
     <row r="798" ht="12.75" customHeight="1">
       <c r="A798" s="4"/>
-      <c r="B798" s="60"/>
+      <c r="B798" s="59"/>
     </row>
     <row r="799" ht="12.75" customHeight="1">
       <c r="A799" s="4"/>
-      <c r="B799" s="60"/>
+      <c r="B799" s="59"/>
     </row>
     <row r="800" ht="12.75" customHeight="1">
       <c r="A800" s="4"/>
-      <c r="B800" s="60"/>
+      <c r="B800" s="59"/>
     </row>
     <row r="801" ht="12.75" customHeight="1">
       <c r="A801" s="4"/>
-      <c r="B801" s="60"/>
+      <c r="B801" s="59"/>
     </row>
     <row r="802" ht="12.75" customHeight="1">
       <c r="A802" s="4"/>
-      <c r="B802" s="60"/>
+      <c r="B802" s="59"/>
     </row>
     <row r="803" ht="12.75" customHeight="1">
       <c r="A803" s="4"/>
-      <c r="B803" s="60"/>
+      <c r="B803" s="59"/>
     </row>
     <row r="804" ht="12.75" customHeight="1">
       <c r="A804" s="4"/>
-      <c r="B804" s="60"/>
+      <c r="B804" s="59"/>
     </row>
     <row r="805" ht="12.75" customHeight="1">
       <c r="A805" s="4"/>
-      <c r="B805" s="60"/>
+      <c r="B805" s="59"/>
     </row>
     <row r="806" ht="12.75" customHeight="1">
       <c r="A806" s="4"/>
-      <c r="B806" s="60"/>
+      <c r="B806" s="59"/>
     </row>
     <row r="807" ht="12.75" customHeight="1">
       <c r="A807" s="4"/>
-      <c r="B807" s="60"/>
+      <c r="B807" s="59"/>
     </row>
     <row r="808" ht="12.75" customHeight="1">
       <c r="A808" s="4"/>
-      <c r="B808" s="60"/>
+      <c r="B808" s="59"/>
     </row>
     <row r="809" ht="12.75" customHeight="1">
       <c r="A809" s="4"/>
-      <c r="B809" s="60"/>
+      <c r="B809" s="59"/>
     </row>
     <row r="810" ht="12.75" customHeight="1">
       <c r="A810" s="4"/>
-      <c r="B810" s="60"/>
+      <c r="B810" s="59"/>
     </row>
     <row r="811" ht="12.75" customHeight="1">
       <c r="A811" s="4"/>
-      <c r="B811" s="60"/>
+      <c r="B811" s="59"/>
     </row>
     <row r="812" ht="12.75" customHeight="1">
       <c r="A812" s="4"/>
-      <c r="B812" s="60"/>
+      <c r="B812" s="59"/>
     </row>
     <row r="813" ht="12.75" customHeight="1">
       <c r="A813" s="4"/>
-      <c r="B813" s="60"/>
+      <c r="B813" s="59"/>
     </row>
     <row r="814" ht="12.75" customHeight="1">
       <c r="A814" s="4"/>
-      <c r="B814" s="60"/>
+      <c r="B814" s="59"/>
     </row>
     <row r="815" ht="12.75" customHeight="1">
       <c r="A815" s="4"/>
-      <c r="B815" s="60"/>
+      <c r="B815" s="59"/>
     </row>
     <row r="816" ht="12.75" customHeight="1">
       <c r="A816" s="4"/>
-      <c r="B816" s="60"/>
+      <c r="B816" s="59"/>
     </row>
     <row r="817" ht="12.75" customHeight="1">
       <c r="A817" s="4"/>
-      <c r="B817" s="60"/>
+      <c r="B817" s="59"/>
     </row>
     <row r="818" ht="12.75" customHeight="1">
       <c r="A818" s="4"/>
-      <c r="B818" s="60"/>
+      <c r="B818" s="59"/>
     </row>
     <row r="819" ht="12.75" customHeight="1">
       <c r="A819" s="4"/>
-      <c r="B819" s="60"/>
+      <c r="B819" s="59"/>
     </row>
     <row r="820" ht="12.75" customHeight="1">
       <c r="A820" s="4"/>
-      <c r="B820" s="60"/>
+      <c r="B820" s="59"/>
     </row>
     <row r="821" ht="12.75" customHeight="1">
       <c r="A821" s="4"/>
-      <c r="B821" s="60"/>
+      <c r="B821" s="59"/>
     </row>
     <row r="822" ht="12.75" customHeight="1">
       <c r="A822" s="4"/>
-      <c r="B822" s="60"/>
+      <c r="B822" s="59"/>
     </row>
     <row r="823" ht="12.75" customHeight="1">
       <c r="A823" s="4"/>
-      <c r="B823" s="60"/>
+      <c r="B823" s="59"/>
     </row>
     <row r="824" ht="12.75" customHeight="1">
       <c r="A824" s="4"/>
-      <c r="B824" s="60"/>
+      <c r="B824" s="59"/>
     </row>
     <row r="825" ht="12.75" customHeight="1">
       <c r="A825" s="4"/>
-      <c r="B825" s="60"/>
+      <c r="B825" s="59"/>
     </row>
     <row r="826" ht="12.75" customHeight="1">
       <c r="A826" s="4"/>
-      <c r="B826" s="60"/>
+      <c r="B826" s="59"/>
     </row>
     <row r="827" ht="12.75" customHeight="1">
       <c r="A827" s="4"/>
-      <c r="B827" s="60"/>
+      <c r="B827" s="59"/>
     </row>
     <row r="828" ht="12.75" customHeight="1">
       <c r="A828" s="4"/>
-      <c r="B828" s="60"/>
+      <c r="B828" s="59"/>
     </row>
     <row r="829" ht="12.75" customHeight="1">
       <c r="A829" s="4"/>
-      <c r="B829" s="60"/>
+      <c r="B829" s="59"/>
     </row>
     <row r="830" ht="12.75" customHeight="1">
       <c r="A830" s="4"/>
-      <c r="B830" s="60"/>
+      <c r="B830" s="59"/>
     </row>
     <row r="831" ht="12.75" customHeight="1">
       <c r="A831" s="4"/>
-      <c r="B831" s="60"/>
+      <c r="B831" s="59"/>
     </row>
     <row r="832" ht="12.75" customHeight="1">
       <c r="A832" s="4"/>
-      <c r="B832" s="60"/>
+      <c r="B832" s="59"/>
     </row>
     <row r="833" ht="12.75" customHeight="1">
       <c r="A833" s="4"/>
-      <c r="B833" s="60"/>
+      <c r="B833" s="59"/>
     </row>
     <row r="834" ht="12.75" customHeight="1">
       <c r="A834" s="4"/>
-      <c r="B834" s="60"/>
+      <c r="B834" s="59"/>
     </row>
     <row r="835" ht="12.75" customHeight="1">
       <c r="A835" s="4"/>
-      <c r="B835" s="60"/>
+      <c r="B835" s="59"/>
     </row>
     <row r="836" ht="12.75" customHeight="1">
       <c r="A836" s="4"/>
-      <c r="B836" s="60"/>
+      <c r="B836" s="59"/>
     </row>
     <row r="837" ht="12.75" customHeight="1">
       <c r="A837" s="4"/>
-      <c r="B837" s="60"/>
+      <c r="B837" s="59"/>
     </row>
     <row r="838" ht="12.75" customHeight="1">
       <c r="A838" s="4"/>
-      <c r="B838" s="60"/>
+      <c r="B838" s="59"/>
     </row>
     <row r="839" ht="12.75" customHeight="1">
       <c r="A839" s="4"/>
-      <c r="B839" s="60"/>
+      <c r="B839" s="59"/>
     </row>
     <row r="840" ht="12.75" customHeight="1">
       <c r="A840" s="4"/>
-      <c r="B840" s="60"/>
+      <c r="B840" s="59"/>
     </row>
     <row r="841" ht="12.75" customHeight="1">
       <c r="A841" s="4"/>
-      <c r="B841" s="60"/>
+      <c r="B841" s="59"/>
     </row>
     <row r="842" ht="12.75" customHeight="1">
       <c r="A842" s="4"/>
-      <c r="B842" s="60"/>
+      <c r="B842" s="59"/>
     </row>
     <row r="843" ht="12.75" customHeight="1">
       <c r="A843" s="4"/>
-      <c r="B843" s="60"/>
+      <c r="B843" s="59"/>
     </row>
     <row r="844" ht="12.75" customHeight="1">
       <c r="A844" s="4"/>
-      <c r="B844" s="60"/>
+      <c r="B844" s="59"/>
     </row>
     <row r="845" ht="12.75" customHeight="1">
       <c r="A845" s="4"/>
-      <c r="B845" s="60"/>
+      <c r="B845" s="59"/>
     </row>
     <row r="846" ht="12.75" customHeight="1">
       <c r="A846" s="4"/>
-      <c r="B846" s="60"/>
+      <c r="B846" s="59"/>
     </row>
     <row r="847" ht="12.75" customHeight="1">
       <c r="A847" s="4"/>
-      <c r="B847" s="60"/>
+      <c r="B847" s="59"/>
     </row>
     <row r="848" ht="12.75" customHeight="1">
       <c r="A848" s="4"/>
-      <c r="B848" s="60"/>
+      <c r="B848" s="59"/>
     </row>
     <row r="849" ht="12.75" customHeight="1">
       <c r="A849" s="4"/>
-      <c r="B849" s="60"/>
+      <c r="B849" s="59"/>
     </row>
     <row r="850" ht="12.75" customHeight="1">
       <c r="A850" s="4"/>
-      <c r="B850" s="60"/>
+      <c r="B850" s="59"/>
     </row>
     <row r="851" ht="12.75" customHeight="1">
       <c r="A851" s="4"/>
-      <c r="B851" s="60"/>
+      <c r="B851" s="59"/>
     </row>
     <row r="852" ht="12.75" customHeight="1">
       <c r="A852" s="4"/>
-      <c r="B852" s="60"/>
+      <c r="B852" s="59"/>
     </row>
     <row r="853" ht="12.75" customHeight="1">
       <c r="A853" s="4"/>
-      <c r="B853" s="60"/>
+      <c r="B853" s="59"/>
     </row>
     <row r="854" ht="12.75" customHeight="1">
       <c r="A854" s="4"/>
-      <c r="B854" s="60"/>
+      <c r="B854" s="59"/>
     </row>
     <row r="855" ht="12.75" customHeight="1">
       <c r="A855" s="4"/>
-      <c r="B855" s="60"/>
+      <c r="B855" s="59"/>
     </row>
     <row r="856" ht="12.75" customHeight="1">
       <c r="A856" s="4"/>
-      <c r="B856" s="60"/>
+      <c r="B856" s="59"/>
     </row>
     <row r="857" ht="12.75" customHeight="1">
       <c r="A857" s="4"/>
-      <c r="B857" s="60"/>
+      <c r="B857" s="59"/>
     </row>
     <row r="858" ht="12.75" customHeight="1">
       <c r="A858" s="4"/>
-      <c r="B858" s="60"/>
+      <c r="B858" s="59"/>
     </row>
     <row r="859" ht="12.75" customHeight="1">
       <c r="A859" s="4"/>
-      <c r="B859" s="60"/>
+      <c r="B859" s="59"/>
     </row>
     <row r="860" ht="12.75" customHeight="1">
       <c r="A860" s="4"/>
-      <c r="B860" s="60"/>
+      <c r="B860" s="59"/>
     </row>
     <row r="861" ht="12.75" customHeight="1">
       <c r="A861" s="4"/>
-      <c r="B861" s="60"/>
+      <c r="B861" s="59"/>
     </row>
     <row r="862" ht="12.75" customHeight="1">
       <c r="A862" s="4"/>
-      <c r="B862" s="60"/>
+      <c r="B862" s="59"/>
     </row>
     <row r="863" ht="12.75" customHeight="1">
       <c r="A863" s="4"/>
-      <c r="B863" s="60"/>
+      <c r="B863" s="59"/>
     </row>
     <row r="864" ht="12.75" customHeight="1">
       <c r="A864" s="4"/>
-      <c r="B864" s="60"/>
+      <c r="B864" s="59"/>
     </row>
     <row r="865" ht="12.75" customHeight="1">
       <c r="A865" s="4"/>
-      <c r="B865" s="60"/>
+      <c r="B865" s="59"/>
     </row>
     <row r="866" ht="12.75" customHeight="1">
       <c r="A866" s="4"/>
-      <c r="B866" s="60"/>
+      <c r="B866" s="59"/>
     </row>
     <row r="867" ht="12.75" customHeight="1">
       <c r="A867" s="4"/>
-      <c r="B867" s="60"/>
+      <c r="B867" s="59"/>
     </row>
     <row r="868" ht="12.75" customHeight="1">
       <c r="A868" s="4"/>
-      <c r="B868" s="60"/>
+      <c r="B868" s="59"/>
     </row>
     <row r="869" ht="12.75" customHeight="1">
       <c r="A869" s="4"/>
-      <c r="B869" s="60"/>
+      <c r="B869" s="59"/>
     </row>
     <row r="870" ht="12.75" customHeight="1">
       <c r="A870" s="4"/>
-      <c r="B870" s="60"/>
+      <c r="B870" s="59"/>
     </row>
     <row r="871" ht="12.75" customHeight="1">
       <c r="A871" s="4"/>
-      <c r="B871" s="60"/>
+      <c r="B871" s="59"/>
     </row>
     <row r="872" ht="12.75" customHeight="1">
       <c r="A872" s="4"/>
-      <c r="B872" s="60"/>
+      <c r="B872" s="59"/>
     </row>
     <row r="873" ht="12.75" customHeight="1">
       <c r="A873" s="4"/>
-      <c r="B873" s="60"/>
+      <c r="B873" s="59"/>
     </row>
     <row r="874" ht="12.75" customHeight="1">
       <c r="A874" s="4"/>
-      <c r="B874" s="60"/>
+      <c r="B874" s="59"/>
     </row>
     <row r="875" ht="12.75" customHeight="1">
       <c r="A875" s="4"/>
-      <c r="B875" s="60"/>
+      <c r="B875" s="59"/>
     </row>
     <row r="876" ht="12.75" customHeight="1">
       <c r="A876" s="4"/>
-      <c r="B876" s="60"/>
+      <c r="B876" s="59"/>
     </row>
     <row r="877" ht="12.75" customHeight="1">
       <c r="A877" s="4"/>
-      <c r="B877" s="60"/>
+      <c r="B877" s="59"/>
     </row>
     <row r="878" ht="12.75" customHeight="1">
       <c r="A878" s="4"/>
-      <c r="B878" s="60"/>
+      <c r="B878" s="59"/>
     </row>
     <row r="879" ht="12.75" customHeight="1">
       <c r="A879" s="4"/>
-      <c r="B879" s="60"/>
+      <c r="B879" s="59"/>
     </row>
     <row r="880" ht="12.75" customHeight="1">
       <c r="A880" s="4"/>
-      <c r="B880" s="60"/>
+      <c r="B880" s="59"/>
     </row>
     <row r="881" ht="12.75" customHeight="1">
       <c r="A881" s="4"/>
-      <c r="B881" s="60"/>
+      <c r="B881" s="59"/>
     </row>
     <row r="882" ht="12.75" customHeight="1">
       <c r="A882" s="4"/>
-      <c r="B882" s="60"/>
+      <c r="B882" s="59"/>
     </row>
     <row r="883" ht="12.75" customHeight="1">
       <c r="A883" s="4"/>
-      <c r="B883" s="60"/>
+      <c r="B883" s="59"/>
     </row>
     <row r="884" ht="12.75" customHeight="1">
       <c r="A884" s="4"/>
-      <c r="B884" s="60"/>
+      <c r="B884" s="59"/>
     </row>
     <row r="885" ht="12.75" customHeight="1">
       <c r="A885" s="4"/>
-      <c r="B885" s="60"/>
+      <c r="B885" s="59"/>
     </row>
     <row r="886" ht="12.75" customHeight="1">
       <c r="A886" s="4"/>
-      <c r="B886" s="60"/>
+      <c r="B886" s="59"/>
     </row>
     <row r="887" ht="12.75" customHeight="1">
       <c r="A887" s="4"/>
-      <c r="B887" s="60"/>
+      <c r="B887" s="59"/>
     </row>
     <row r="888" ht="12.75" customHeight="1">
       <c r="A888" s="4"/>
-      <c r="B888" s="60"/>
+      <c r="B888" s="59"/>
     </row>
     <row r="889" ht="12.75" customHeight="1">
       <c r="A889" s="4"/>
-      <c r="B889" s="60"/>
+      <c r="B889" s="59"/>
     </row>
     <row r="890" ht="12.75" customHeight="1">
       <c r="A890" s="4"/>
-      <c r="B890" s="60"/>
+      <c r="B890" s="59"/>
     </row>
     <row r="891" ht="12.75" customHeight="1">
       <c r="A891" s="4"/>
-      <c r="B891" s="60"/>
+      <c r="B891" s="59"/>
     </row>
     <row r="892" ht="12.75" customHeight="1">
       <c r="A892" s="4"/>
-      <c r="B892" s="60"/>
+      <c r="B892" s="59"/>
     </row>
     <row r="893" ht="12.75" customHeight="1">
       <c r="A893" s="4"/>
-      <c r="B893" s="60"/>
+      <c r="B893" s="59"/>
     </row>
     <row r="894" ht="12.75" customHeight="1">
       <c r="A894" s="4"/>
-      <c r="B894" s="60"/>
+      <c r="B894" s="59"/>
     </row>
     <row r="895" ht="12.75" customHeight="1">
       <c r="A895" s="4"/>
-      <c r="B895" s="60"/>
+      <c r="B895" s="59"/>
     </row>
     <row r="896" ht="12.75" customHeight="1">
       <c r="A896" s="4"/>
-      <c r="B896" s="60"/>
+      <c r="B896" s="59"/>
     </row>
     <row r="897" ht="12.75" customHeight="1">
       <c r="A897" s="4"/>
-      <c r="B897" s="60"/>
+      <c r="B897" s="59"/>
     </row>
     <row r="898" ht="12.75" customHeight="1">
       <c r="A898" s="4"/>
-      <c r="B898" s="60"/>
+      <c r="B898" s="59"/>
     </row>
     <row r="899" ht="12.75" customHeight="1">
       <c r="A899" s="4"/>
-      <c r="B899" s="60"/>
+      <c r="B899" s="59"/>
     </row>
     <row r="900" ht="12.75" customHeight="1">
       <c r="A900" s="4"/>
-      <c r="B900" s="60"/>
+      <c r="B900" s="59"/>
     </row>
     <row r="901" ht="12.75" customHeight="1">
       <c r="A901" s="4"/>
-      <c r="B901" s="60"/>
+      <c r="B901" s="59"/>
     </row>
     <row r="902" ht="12.75" customHeight="1">
       <c r="A902" s="4"/>
-      <c r="B902" s="60"/>
+      <c r="B902" s="59"/>
     </row>
     <row r="903" ht="12.75" customHeight="1">
       <c r="A903" s="4"/>
-      <c r="B903" s="60"/>
+      <c r="B903" s="59"/>
     </row>
     <row r="904" ht="12.75" customHeight="1">
       <c r="A904" s="4"/>
-      <c r="B904" s="60"/>
+      <c r="B904" s="59"/>
     </row>
     <row r="905" ht="12.75" customHeight="1">
       <c r="A905" s="4"/>
-      <c r="B905" s="60"/>
+      <c r="B905" s="59"/>
     </row>
     <row r="906" ht="12.75" customHeight="1">
       <c r="A906" s="4"/>
-      <c r="B906" s="60"/>
+      <c r="B906" s="59"/>
     </row>
     <row r="907" ht="12.75" customHeight="1">
       <c r="A907" s="4"/>
-      <c r="B907" s="60"/>
+      <c r="B907" s="59"/>
     </row>
     <row r="908" ht="12.75" customHeight="1">
       <c r="A908" s="4"/>
-      <c r="B908" s="60"/>
+      <c r="B908" s="59"/>
     </row>
     <row r="909" ht="12.75" customHeight="1">
       <c r="A909" s="4"/>
-      <c r="B909" s="60"/>
+      <c r="B909" s="59"/>
     </row>
     <row r="910" ht="12.75" customHeight="1">
       <c r="A910" s="4"/>
-      <c r="B910" s="60"/>
+      <c r="B910" s="59"/>
     </row>
     <row r="911" ht="12.75" customHeight="1">
       <c r="A911" s="4"/>
-      <c r="B911" s="60"/>
+      <c r="B911" s="59"/>
     </row>
     <row r="912" ht="12.75" customHeight="1">
       <c r="A912" s="4"/>
-      <c r="B912" s="60"/>
+      <c r="B912" s="59"/>
     </row>
     <row r="913" ht="12.75" customHeight="1">
       <c r="A913" s="4"/>
-      <c r="B913" s="60"/>
+      <c r="B913" s="59"/>
     </row>
     <row r="914" ht="12.75" customHeight="1">
       <c r="A914" s="4"/>
-      <c r="B914" s="60"/>
+      <c r="B914" s="59"/>
     </row>
     <row r="915" ht="12.75" customHeight="1">
       <c r="A915" s="4"/>
-      <c r="B915" s="60"/>
+      <c r="B915" s="59"/>
     </row>
     <row r="916" ht="12.75" customHeight="1">
       <c r="A916" s="4"/>
-      <c r="B916" s="60"/>
+      <c r="B916" s="59"/>
     </row>
     <row r="917" ht="12.75" customHeight="1">
       <c r="A917" s="4"/>
-      <c r="B917" s="60"/>
+      <c r="B917" s="59"/>
     </row>
     <row r="918" ht="12.75" customHeight="1">
       <c r="A918" s="4"/>
-      <c r="B918" s="60"/>
+      <c r="B918" s="59"/>
     </row>
     <row r="919" ht="12.75" customHeight="1">
       <c r="A919" s="4"/>
-      <c r="B919" s="60"/>
+      <c r="B919" s="59"/>
     </row>
     <row r="920" ht="12.75" customHeight="1">
       <c r="A920" s="4"/>
-      <c r="B920" s="60"/>
+      <c r="B920" s="59"/>
     </row>
     <row r="921" ht="12.75" customHeight="1">
       <c r="A921" s="4"/>
-      <c r="B921" s="60"/>
+      <c r="B921" s="59"/>
     </row>
     <row r="922" ht="12.75" customHeight="1">
       <c r="A922" s="4"/>
-      <c r="B922" s="60"/>
+      <c r="B922" s="59"/>
     </row>
     <row r="923" ht="12.75" customHeight="1">
       <c r="A923" s="4"/>
-      <c r="B923" s="60"/>
+      <c r="B923" s="59"/>
     </row>
     <row r="924" ht="12.75" customHeight="1">
       <c r="A924" s="4"/>
-      <c r="B924" s="60"/>
+      <c r="B924" s="59"/>
     </row>
     <row r="925" ht="12.75" customHeight="1">
       <c r="A925" s="4"/>
-      <c r="B925" s="60"/>
+      <c r="B925" s="59"/>
     </row>
     <row r="926" ht="12.75" customHeight="1">
       <c r="A926" s="4"/>
-      <c r="B926" s="60"/>
+      <c r="B926" s="59"/>
     </row>
     <row r="927" ht="12.75" customHeight="1">
       <c r="A927" s="4"/>
-      <c r="B927" s="60"/>
+      <c r="B927" s="59"/>
     </row>
     <row r="928" ht="12.75" customHeight="1">
       <c r="A928" s="4"/>
-      <c r="B928" s="60"/>
+      <c r="B928" s="59"/>
     </row>
     <row r="929" ht="12.75" customHeight="1">
       <c r="A929" s="4"/>
-      <c r="B929" s="60"/>
+      <c r="B929" s="59"/>
     </row>
     <row r="930" ht="12.75" customHeight="1">
       <c r="A930" s="4"/>
-      <c r="B930" s="60"/>
+      <c r="B930" s="59"/>
     </row>
     <row r="931" ht="12.75" customHeight="1">
       <c r="A931" s="4"/>
-      <c r="B931" s="60"/>
+      <c r="B931" s="59"/>
     </row>
     <row r="932" ht="12.75" customHeight="1">
       <c r="A932" s="4"/>
-      <c r="B932" s="60"/>
+      <c r="B932" s="59"/>
     </row>
     <row r="933" ht="12.75" customHeight="1">
       <c r="A933" s="4"/>
-      <c r="B933" s="60"/>
+      <c r="B933" s="59"/>
     </row>
     <row r="934" ht="12.75" customHeight="1">
       <c r="A934" s="4"/>
-      <c r="B934" s="60"/>
+      <c r="B934" s="59"/>
     </row>
     <row r="935" ht="12.75" customHeight="1">
       <c r="A935" s="4"/>
-      <c r="B935" s="60"/>
+      <c r="B935" s="59"/>
     </row>
     <row r="936" ht="12.75" customHeight="1">
       <c r="A936" s="4"/>
-      <c r="B936" s="60"/>
+      <c r="B936" s="59"/>
     </row>
     <row r="937" ht="12.75" customHeight="1">
       <c r="A937" s="4"/>
-      <c r="B937" s="60"/>
+      <c r="B937" s="59"/>
     </row>
     <row r="938" ht="12.75" customHeight="1">
       <c r="A938" s="4"/>
-      <c r="B938" s="60"/>
+      <c r="B938" s="59"/>
     </row>
     <row r="939" ht="12.75" customHeight="1">
       <c r="A939" s="4"/>
-      <c r="B939" s="60"/>
+      <c r="B939" s="59"/>
     </row>
     <row r="940" ht="12.75" customHeight="1">
       <c r="A940" s="4"/>
-      <c r="B940" s="60"/>
+      <c r="B940" s="59"/>
     </row>
     <row r="941" ht="12.75" customHeight="1">
       <c r="A941" s="4"/>
-      <c r="B941" s="60"/>
+      <c r="B941" s="59"/>
     </row>
     <row r="942" ht="12.75" customHeight="1">
       <c r="A942" s="4"/>
-      <c r="B942" s="60"/>
+      <c r="B942" s="59"/>
     </row>
     <row r="943" ht="12.75" customHeight="1">
       <c r="A943" s="4"/>
-      <c r="B943" s="60"/>
+      <c r="B943" s="59"/>
     </row>
     <row r="944" ht="12.75" customHeight="1">
       <c r="A944" s="4"/>
-      <c r="B944" s="60"/>
+      <c r="B944" s="59"/>
     </row>
     <row r="945" ht="12.75" customHeight="1">
       <c r="A945" s="4"/>
-      <c r="B945" s="60"/>
+      <c r="B945" s="59"/>
     </row>
     <row r="946" ht="12.75" customHeight="1">
       <c r="A946" s="4"/>
-      <c r="B946" s="60"/>
+      <c r="B946" s="59"/>
     </row>
     <row r="947" ht="12.75" customHeight="1">
       <c r="A947" s="4"/>
-      <c r="B947" s="60"/>
+      <c r="B947" s="59"/>
     </row>
     <row r="948" ht="12.75" customHeight="1">
       <c r="A948" s="4"/>
-      <c r="B948" s="60"/>
+      <c r="B948" s="59"/>
     </row>
     <row r="949" ht="12.75" customHeight="1">
       <c r="A949" s="4"/>
-      <c r="B949" s="60"/>
+      <c r="B949" s="59"/>
     </row>
     <row r="950" ht="12.75" customHeight="1">
       <c r="A950" s="4"/>
-      <c r="B950" s="60"/>
+      <c r="B950" s="59"/>
     </row>
     <row r="951" ht="12.75" customHeight="1">
       <c r="A951" s="4"/>
-      <c r="B951" s="60"/>
+      <c r="B951" s="59"/>
     </row>
     <row r="952" ht="12.75" customHeight="1">
       <c r="A952" s="4"/>
-      <c r="B952" s="60"/>
+      <c r="B952" s="59"/>
     </row>
     <row r="953" ht="12.75" customHeight="1">
       <c r="A953" s="4"/>
-      <c r="B953" s="60"/>
+      <c r="B953" s="59"/>
     </row>
     <row r="954" ht="12.75" customHeight="1">
       <c r="A954" s="4"/>
-      <c r="B954" s="60"/>
+      <c r="B954" s="59"/>
     </row>
     <row r="955" ht="12.75" customHeight="1">
       <c r="A955" s="4"/>
-      <c r="B955" s="60"/>
+      <c r="B955" s="59"/>
     </row>
     <row r="956" ht="12.75" customHeight="1">
       <c r="A956" s="4"/>
-      <c r="B956" s="60"/>
+      <c r="B956" s="59"/>
     </row>
     <row r="957" ht="12.75" customHeight="1">
       <c r="A957" s="4"/>
-      <c r="B957" s="60"/>
+      <c r="B957" s="59"/>
     </row>
     <row r="958" ht="12.75" customHeight="1">
       <c r="A958" s="4"/>
-      <c r="B958" s="60"/>
+      <c r="B958" s="59"/>
     </row>
     <row r="959" ht="12.75" customHeight="1">
       <c r="A959" s="4"/>
-      <c r="B959" s="60"/>
+      <c r="B959" s="59"/>
     </row>
     <row r="960" ht="12.75" customHeight="1">
       <c r="A960" s="4"/>
-      <c r="B960" s="60"/>
+      <c r="B960" s="59"/>
     </row>
     <row r="961" ht="12.75" customHeight="1">
       <c r="A961" s="4"/>
-      <c r="B961" s="60"/>
+      <c r="B961" s="59"/>
     </row>
     <row r="962" ht="12.75" customHeight="1">
       <c r="A962" s="4"/>
-      <c r="B962" s="60"/>
+      <c r="B962" s="59"/>
     </row>
     <row r="963" ht="12.75" customHeight="1">
       <c r="A963" s="4"/>
-      <c r="B963" s="60"/>
+      <c r="B963" s="59"/>
     </row>
     <row r="964" ht="12.75" customHeight="1">
       <c r="A964" s="4"/>
-      <c r="B964" s="60"/>
+      <c r="B964" s="59"/>
     </row>
     <row r="965" ht="12.75" customHeight="1">
       <c r="A965" s="4"/>
-      <c r="B965" s="60"/>
+      <c r="B965" s="59"/>
     </row>
     <row r="966" ht="12.75" customHeight="1">
       <c r="A966" s="4"/>
-      <c r="B966" s="60"/>
+      <c r="B966" s="59"/>
     </row>
     <row r="967" ht="12.75" customHeight="1">
       <c r="A967" s="4"/>
-      <c r="B967" s="60"/>
+      <c r="B967" s="59"/>
     </row>
     <row r="968" ht="12.75" customHeight="1">
       <c r="A968" s="4"/>
-      <c r="B968" s="60"/>
+      <c r="B968" s="59"/>
     </row>
     <row r="969" ht="12.75" customHeight="1">
       <c r="A969" s="4"/>
-      <c r="B969" s="60"/>
+      <c r="B969" s="59"/>
     </row>
     <row r="970" ht="12.75" customHeight="1">
       <c r="A970" s="4"/>
-      <c r="B970" s="60"/>
+      <c r="B970" s="59"/>
     </row>
     <row r="971" ht="12.75" customHeight="1">
       <c r="A971" s="4"/>
-      <c r="B971" s="60"/>
+      <c r="B971" s="59"/>
     </row>
     <row r="972" ht="12.75" customHeight="1">
       <c r="A972" s="4"/>
-      <c r="B972" s="60"/>
+      <c r="B972" s="59"/>
     </row>
     <row r="973" ht="12.75" customHeight="1">
       <c r="A973" s="4"/>
-      <c r="B973" s="60"/>
+      <c r="B973" s="59"/>
     </row>
     <row r="974" ht="12.75" customHeight="1">
       <c r="A974" s="4"/>
-      <c r="B974" s="60"/>
+      <c r="B974" s="59"/>
     </row>
     <row r="975" ht="12.75" customHeight="1">
       <c r="A975" s="4"/>
-      <c r="B975" s="60"/>
+      <c r="B975" s="59"/>
     </row>
     <row r="976" ht="12.75" customHeight="1">
       <c r="A976" s="4"/>
-      <c r="B976" s="60"/>
+      <c r="B976" s="59"/>
     </row>
     <row r="977" ht="12.75" customHeight="1">
       <c r="A977" s="4"/>
-      <c r="B977" s="60"/>
+      <c r="B977" s="59"/>
     </row>
     <row r="978" ht="12.75" customHeight="1">
       <c r="A978" s="4"/>
-      <c r="B978" s="60"/>
+      <c r="B978" s="59"/>
     </row>
     <row r="979" ht="12.75" customHeight="1">
       <c r="A979" s="4"/>
-      <c r="B979" s="60"/>
+      <c r="B979" s="59"/>
     </row>
     <row r="980" ht="12.75" customHeight="1">
       <c r="A980" s="4"/>
-      <c r="B980" s="60"/>
+      <c r="B980" s="59"/>
     </row>
     <row r="981" ht="12.75" customHeight="1">
       <c r="A981" s="4"/>
-      <c r="B981" s="60"/>
+      <c r="B981" s="59"/>
     </row>
     <row r="982" ht="12.75" customHeight="1">
       <c r="A982" s="4"/>
-      <c r="B982" s="60"/>
+      <c r="B982" s="59"/>
     </row>
     <row r="983" ht="12.75" customHeight="1">
       <c r="A983" s="4"/>
-      <c r="B983" s="60"/>
+      <c r="B983" s="59"/>
     </row>
     <row r="984" ht="12.75" customHeight="1">
       <c r="A984" s="4"/>
-      <c r="B984" s="60"/>
+      <c r="B984" s="59"/>
     </row>
     <row r="985" ht="12.75" customHeight="1">
       <c r="A985" s="4"/>
-      <c r="B985" s="60"/>
+      <c r="B985" s="59"/>
     </row>
     <row r="986" ht="12.75" customHeight="1">
       <c r="A986" s="4"/>
-      <c r="B986" s="60"/>
+      <c r="B986" s="59"/>
     </row>
     <row r="987" ht="12.75" customHeight="1">
       <c r="A987" s="4"/>
-      <c r="B987" s="60"/>
+      <c r="B987" s="59"/>
     </row>
     <row r="988" ht="12.75" customHeight="1">
       <c r="A988" s="4"/>
-      <c r="B988" s="60"/>
+      <c r="B988" s="59"/>
     </row>
     <row r="989" ht="12.75" customHeight="1">
       <c r="A989" s="4"/>
-      <c r="B989" s="60"/>
+      <c r="B989" s="59"/>
     </row>
     <row r="990" ht="12.75" customHeight="1">
       <c r="A990" s="4"/>
-      <c r="B990" s="60"/>
+      <c r="B990" s="59"/>
     </row>
     <row r="991" ht="12.75" customHeight="1">
       <c r="A991" s="4"/>
-      <c r="B991" s="60"/>
+      <c r="B991" s="59"/>
     </row>
     <row r="992" ht="12.75" customHeight="1">
       <c r="A992" s="4"/>
-      <c r="B992" s="60"/>
+      <c r="B992" s="59"/>
     </row>
     <row r="993" ht="12.75" customHeight="1">
       <c r="A993" s="4"/>
-      <c r="B993" s="60"/>
+      <c r="B993" s="59"/>
     </row>
     <row r="994" ht="12.75" customHeight="1">
       <c r="A994" s="4"/>
-      <c r="B994" s="60"/>
+      <c r="B994" s="59"/>
     </row>
     <row r="995" ht="12.75" customHeight="1">
       <c r="A995" s="4"/>
-      <c r="B995" s="60"/>
+      <c r="B995" s="59"/>
     </row>
     <row r="996" ht="12.75" customHeight="1">
       <c r="A996" s="4"/>
-      <c r="B996" s="60"/>
+      <c r="B996" s="59"/>
     </row>
     <row r="997" ht="12.75" customHeight="1">
       <c r="A997" s="4"/>
-      <c r="B997" s="60"/>
+      <c r="B997" s="59"/>
     </row>
     <row r="998" ht="12.75" customHeight="1">
       <c r="A998" s="4"/>
-      <c r="B998" s="60"/>
+      <c r="B998" s="59"/>
     </row>
     <row r="999" ht="12.75" customHeight="1">
       <c r="A999" s="4"/>
-      <c r="B999" s="60"/>
+      <c r="B999" s="59"/>
     </row>
     <row r="1000" ht="12.75" customHeight="1">
       <c r="A1000" s="4"/>
-      <c r="B1000" s="60"/>
+      <c r="B1000" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21397,129 +21432,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.86"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="4" width="6.43"/>
-    <col customWidth="1" min="5" max="5" width="5.43"/>
-    <col customWidth="1" min="6" max="6" width="6.57"/>
-    <col customWidth="1" min="7" max="26" width="9.14"/>
+    <col customWidth="1" min="1" max="1" width="17.38"/>
+    <col customWidth="1" min="2" max="2" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="8.88"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="4.75"/>
+    <col customWidth="1" min="6" max="6" width="5.75"/>
+    <col customWidth="1" min="7" max="26" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>154</v>
+      <c r="A1" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="89">
+      <c r="A2" s="88">
         <v>0.0</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="89" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="89">
+      <c r="A3" s="88">
         <v>1.0</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="92">
+      <c r="B3" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="91">
         <f>A4</f>
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="89">
+      <c r="A4" s="88">
         <v>29.0</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="92">
+        <v>165</v>
+      </c>
+      <c r="D4" s="91">
         <f t="shared" ref="D4:D7" si="1">A4</f>
         <v>29</v>
       </c>
-      <c r="E4" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="92">
+      <c r="E4" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="91">
         <f t="shared" ref="F4:F6" si="2">A5</f>
         <v>49</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="89">
+      <c r="A5" s="88">
         <v>49.0</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="92">
+        <v>165</v>
+      </c>
+      <c r="D5" s="91">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="E5" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="92">
+      <c r="E5" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="91">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="89">
+      <c r="A6" s="88">
         <v>69.0</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="92">
+        <v>165</v>
+      </c>
+      <c r="D6" s="91">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E6" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="92">
+      <c r="E6" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="91">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="89">
+      <c r="A7" s="88">
         <v>89.0</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="C7" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
